--- a/data/hotels_by_city/Houston/Houston_shard_663.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_663.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d6820799-Reviews-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Towneplace-Suites-By-Marriott-Houston-Westchase.h8645124.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,956 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r590712605-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>6820799</t>
+  </si>
+  <si>
+    <t>590712605</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Okay, just get a top floor room!</t>
+  </si>
+  <si>
+    <t>Location is good, staff was friendly, place was clean.  The only gripe I had was that the floors are thin and I could tell you where the person above me was at all times!  I would say a top floor room is the trick here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Theresa C, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded July 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2018</t>
+  </si>
+  <si>
+    <t>Location is good, staff was friendly, place was clean.  The only gripe I had was that the floors are thin and I could tell you where the person above me was at all times!  I would say a top floor room is the trick here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r583918501-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583918501</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Great customer service, location and room set up</t>
+  </si>
+  <si>
+    <t>We traveled as a group for attending an event and received great customer service and help from the hotel. The hotel took care of the diverse needs of our group including international food requests during complimentary breakfast. The hotel rooms and corridors and common areas were very clean. The rooms were relatively small but very well appointed with enough space for storage. The rooms had a large fridge, sink and even a couple of burners for your convenience. The location was perfect with easy access to Westpack and Sam Houston Tollways. If you are visiting Houston and happen to be around this side of town, this hotel is worth checking out.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We traveled as a group for attending an event and received great customer service and help from the hotel. The hotel took care of the diverse needs of our group including international food requests during complimentary breakfast. The hotel rooms and corridors and common areas were very clean. The rooms were relatively small but very well appointed with enough space for storage. The rooms had a large fridge, sink and even a couple of burners for your convenience. The location was perfect with easy access to Westpack and Sam Houston Tollways. If you are visiting Houston and happen to be around this side of town, this hotel is worth checking out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r582381095-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582381095</t>
+  </si>
+  <si>
+    <t>05/24/2018</t>
+  </si>
+  <si>
+    <t>Good Hotel in Westchase Neighborhood</t>
+  </si>
+  <si>
+    <t>I was in Houston for business travel and TownPlace Suites was very close to my client.The hotel is what you expect from a Marriott brand hotel.  The staff is friendly.  The rooms are clean.  The beds are very comfy.The rooms come with a little kitchenette, which is nice.  The breakfast bar has the standard fare, but also had international breakfast options serving Indian food which was a pleasant surprise.MoreShow less</t>
+  </si>
+  <si>
+    <t>Theresa C, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded May 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2018</t>
+  </si>
+  <si>
+    <t>I was in Houston for business travel and TownPlace Suites was very close to my client.The hotel is what you expect from a Marriott brand hotel.  The staff is friendly.  The rooms are clean.  The beds are very comfy.The rooms come with a little kitchenette, which is nice.  The breakfast bar has the standard fare, but also had international breakfast options serving Indian food which was a pleasant surprise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r575298454-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575298454</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Great room and friendly staff</t>
+  </si>
+  <si>
+    <t>This was our first stay here, and we will stay here again! Had a very quiet room on the 4th floor. Very clean. Comfortable bed. Very clean bathroom. Spacious room. The kitchen area even had a dishwasher! Super long closet. Very good breakfast. Internet fast at business center.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Theresa C, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2018</t>
+  </si>
+  <si>
+    <t>This was our first stay here, and we will stay here again! Had a very quiet room on the 4th floor. Very clean. Comfortable bed. Very clean bathroom. Spacious room. The kitchen area even had a dishwasher! Super long closet. Very good breakfast. Internet fast at business center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r571276501-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571276501</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>Clean and Modern!</t>
+  </si>
+  <si>
+    <t>I really appreciated the full size microwave and dishwasher.  The kitchen was well stocked with everything I needed.  The hotel staff is friendly and professional... I especially appreciated Kourtney's help! I have no complaints and look forward to staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I really appreciated the full size microwave and dishwasher.  The kitchen was well stocked with everything I needed.  The hotel staff is friendly and professional... I especially appreciated Kourtney's help! I have no complaints and look forward to staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r571202914-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571202914</t>
+  </si>
+  <si>
+    <t>hotel is strategically located, extremely clean and courteous staff</t>
+  </si>
+  <si>
+    <t>I always stay in this hotel whenever I am in Houston. I just love the place. The food is good, the room is clean, all amenities great. The parking is not an issue. Market meets my needs. It is like a home away from home. I enjoyed every minute of my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Theresa C, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2018</t>
+  </si>
+  <si>
+    <t>I always stay in this hotel whenever I am in Houston. I just love the place. The food is good, the room is clean, all amenities great. The parking is not an issue. Market meets my needs. It is like a home away from home. I enjoyed every minute of my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r570528055-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570528055</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falsely Accused &amp; Overcharged </t>
+  </si>
+  <si>
+    <t>I am not happy at all with my stay here. I was charged a smoking fee when in fact I’m a  nonsmoker and I’m very asthmatic and I have medical papers to prove it . Plus my guest was pregnant who can’t even be around smoking. I was not notified of this charge either . Absolutely outrageous. Called to speak to a manager and the front desk staff was rude and actually called me a b**** after I asked for proof of photos . When I called the 2nd time I was told to wait till the manager got back. Never had a problem like this with any other Marriot hotel. I called for extra towels and they were never brought to me. I will be following up with corporate Tommorow. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Theresa C, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>I am not happy at all with my stay here. I was charged a smoking fee when in fact I’m a  nonsmoker and I’m very asthmatic and I have medical papers to prove it . Plus my guest was pregnant who can’t even be around smoking. I was not notified of this charge either . Absolutely outrageous. Called to speak to a manager and the front desk staff was rude and actually called me a b**** after I asked for proof of photos . When I called the 2nd time I was told to wait till the manager got back. Never had a problem like this with any other Marriot hotel. I called for extra towels and they were never brought to me. I will be following up with corporate Tommorow. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r569555824-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569555824</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>Great atmosphere and the staff makes you feel very welcome!</t>
+  </si>
+  <si>
+    <t>What an experience I had at this wonderfully run hotel.All the staff filled with energy and information. Speaking about breakfast....delicious every time with option of international menu.I would recommend if you are ever in Houston area and are looking for not just a room to rest your head for the night but a wonderful experience then this is your place.Overall I give 5 Star rating for all the staff members for their hard work and commitment to keep the guests happy.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Theresa C, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded March 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2018</t>
+  </si>
+  <si>
+    <t>What an experience I had at this wonderfully run hotel.All the staff filled with energy and information. Speaking about breakfast....delicious every time with option of international menu.I would recommend if you are ever in Houston area and are looking for not just a room to rest your head for the night but a wonderful experience then this is your place.Overall I give 5 Star rating for all the staff members for their hard work and commitment to keep the guests happy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r569391678-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569391678</t>
+  </si>
+  <si>
+    <t>03/28/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing Stay and Hospitality </t>
+  </si>
+  <si>
+    <t>My stay was nothing short of amazing. The staff and hotel manager made me feel welcomed and helped me navigate my way around the city. The front desk greeted me with a smile while I was on a three day getaway.MoreShow less</t>
+  </si>
+  <si>
+    <t>Theresa C, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded March 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2018</t>
+  </si>
+  <si>
+    <t>My stay was nothing short of amazing. The staff and hotel manager made me feel welcomed and helped me navigate my way around the city. The front desk greeted me with a smile while I was on a three day getaway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r566682110-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566682110</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>This hotel is the best by far when compared with the others I have stated at. The rooms are very comfortable despite being smaller than others I have stayed at but the design of fitting a kitchen and bath in a small space was admirable. The location was very convenient to most areas within the Westchase area. The staff was friendly and helpful. Its gym was clean and spacious. Breakfast was good for the price and for those who are on the go. Parking space was excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>Theresa C, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is the best by far when compared with the others I have stated at. The rooms are very comfortable despite being smaller than others I have stayed at but the design of fitting a kitchen and bath in a small space was admirable. The location was very convenient to most areas within the Westchase area. The staff was friendly and helpful. Its gym was clean and spacious. Breakfast was good for the price and for those who are on the go. Parking space was excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r560114311-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560114311</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>My stay was wonderful❤</t>
+  </si>
+  <si>
+    <t>Omg walking into this hotel was the best stay ever. FD assistant Raquel Garcia was so welcoming. She made my stay so comfortable and was able to put me in the best room for me n my big family of 6 kids, my husband and I. She provided me with extra towels and blankets when asked for. There was also a lady in breakfast which made sure everyone was doing good. She was there feb 3rd and feb 4th.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Theresa C, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded February 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2018</t>
+  </si>
+  <si>
+    <t>Omg walking into this hotel was the best stay ever. FD assistant Raquel Garcia was so welcoming. She made my stay so comfortable and was able to put me in the best room for me n my big family of 6 kids, my husband and I. She provided me with extra towels and blankets when asked for. There was also a lady in breakfast which made sure everyone was doing good. She was there feb 3rd and feb 4th.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r558571393-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558571393</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t>Archery Tournament</t>
+  </si>
+  <si>
+    <t>The room is VERY small - not at all what I expected for a Marriott-brand hotel. The walls seemed thin - we could hear EVERYTHING in the rooms around us. The bed was comfortable. The Staff is very nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>Theresa C, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2018</t>
+  </si>
+  <si>
+    <t>The room is VERY small - not at all what I expected for a Marriott-brand hotel. The walls seemed thin - we could hear EVERYTHING in the rooms around us. The bed was comfortable. The Staff is very nice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r540478363-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540478363</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Weekend Stay---Again! </t>
+  </si>
+  <si>
+    <t>We've stayed here several times in the past and have moved this hotel to the top of our list when visiting Houston. The location is right off a major freeway, easy in and out, close to good restaurants, and near enough to downtown and the Galleria. The staff is always courteous and accommodating. Jorge F. made this stay extra special and we appreciate his service with a smile and lots of laughs. We stayed on the 3rd floor which was nice and quiet.  Our suite was clean and bed was comfortable.  We will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>We've stayed here several times in the past and have moved this hotel to the top of our list when visiting Houston. The location is right off a major freeway, easy in and out, close to good restaurants, and near enough to downtown and the Galleria. The staff is always courteous and accommodating. Jorge F. made this stay extra special and we appreciate his service with a smile and lots of laughs. We stayed on the 3rd floor which was nice and quiet.  Our suite was clean and bed was comfortable.  We will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r538531194-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538531194</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Good staff, very clean room, good amenities</t>
+  </si>
+  <si>
+    <t>Stayed 1 week for work.  Staff jumped through hoops for me taking care of anything at all.  The room was beyond clean and everything looked pretty new.  Very good layout.  I was in a one room version.  Had a kitchen with a fridge, 2 cook top, microwave, dishwasher, utensils, etc.  Was able to eat in almost the entire time.  Good sized closet and storage everywhere.  Drawers and cabinets in the kitchen, in the workspace, bathroom and dual nightstands.  Best idea was the built in work area that included another table with wheels on it that pulls out.  This could be used as an eating table and as a work area that you could pull out and point in any direction.  In particular, so you could see the TV.  Good TV as well.  Bathroom has some counter space and good storage.  AC worked great and was controlled by a thermostat in the kitchen.  I will definitely stay there again and again.  Free Internet.  Pillow top bed that was very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Stayed 1 week for work.  Staff jumped through hoops for me taking care of anything at all.  The room was beyond clean and everything looked pretty new.  Very good layout.  I was in a one room version.  Had a kitchen with a fridge, 2 cook top, microwave, dishwasher, utensils, etc.  Was able to eat in almost the entire time.  Good sized closet and storage everywhere.  Drawers and cabinets in the kitchen, in the workspace, bathroom and dual nightstands.  Best idea was the built in work area that included another table with wheels on it that pulls out.  This could be used as an eating table and as a work area that you could pull out and point in any direction.  In particular, so you could see the TV.  Good TV as well.  Bathroom has some counter space and good storage.  AC worked great and was controlled by a thermostat in the kitchen.  I will definitely stay there again and again.  Free Internet.  Pillow top bed that was very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r535747464-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>535747464</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Good Location, Friendly Staff but One Concern</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my family for two nights. The accommodation was suitable for a family with a young child and baby. The kitchenette was nice and the breakfast on mornings was tasty enough with fair options (cereal, waffles, bread and eggs, sausages, fruit, yogurt etc). The main concern we had was that in that short stay we spotted and killed more than 12 small cockroaches. We reported to the front desk, they were aware of it and apologized, said that the exterminators were due for a visit and even gave us bug spray but it did not deter the unease about leaving things open or our for fear of the chance that roaches would get in.MoreShow less</t>
+  </si>
+  <si>
+    <t>Roberto D, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded November 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my family for two nights. The accommodation was suitable for a family with a young child and baby. The kitchenette was nice and the breakfast on mornings was tasty enough with fair options (cereal, waffles, bread and eggs, sausages, fruit, yogurt etc). The main concern we had was that in that short stay we spotted and killed more than 12 small cockroaches. We reported to the front desk, they were aware of it and apologized, said that the exterminators were due for a visit and even gave us bug spray but it did not deter the unease about leaving things open or our for fear of the chance that roaches would get in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r515555763-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>515555763</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Comfortable stay, excellent breakfast, courteous staff</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel during my last business trip to Houston. The check-in process was very smooth, the staff here is very courteous and professional. Enjoyed the breakfast on all three days I was there. I had an issue with my next door guest who used to play music after 11 pm and sometimes beginning 5 am. I called the front desk and they took care of the matter. Plenty of parking available in the hotel. However, the traffic in the area is a mess in general during rush hours.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r508533409-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508533409</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacation </t>
+  </si>
+  <si>
+    <t>We stayed here for just a weekend getaway. When looking for hotel rooms we wanted something with 2 separate bedrooms (large family), so we ended up choosing this one. Upon arrival we immediately noticed some areas of concern with the room. The cabinets had stains, as if they had not been wiped down. There were ants on the AC unit. The couch was dirty underneath a tray. These things were all bad; however, what we saw in the bathroom took the cake. After entering the bathroom, there was a huge roach on the ceiling of the bathroom wall. The bathroom mirror also contained dark black stains at the bottom. I'm not sure if this was mold, or what. We were going to try to put up with the room, but in the end, we decided to ask the front desk for new arrangements. After explaining the situation, the front desk staff were very understanding, and looked into getting us another room. There were no more 2 BR suites available, so they put us into a 1 BR King suite, and a 1 BR king room. This was no problem (we still had more than enough space), and actually ended up being better because we had 2 bathrooms. This room was a little cleaner than the last; however, there were some minor areas that still should have been taken care of by housekeeping upon our arrival. The bathroom had piss on...We stayed here for just a weekend getaway. When looking for hotel rooms we wanted something with 2 separate bedrooms (large family), so we ended up choosing this one. Upon arrival we immediately noticed some areas of concern with the room. The cabinets had stains, as if they had not been wiped down. There were ants on the AC unit. The couch was dirty underneath a tray. These things were all bad; however, what we saw in the bathroom took the cake. After entering the bathroom, there was a huge roach on the ceiling of the bathroom wall. The bathroom mirror also contained dark black stains at the bottom. I'm not sure if this was mold, or what. We were going to try to put up with the room, but in the end, we decided to ask the front desk for new arrangements. After explaining the situation, the front desk staff were very understanding, and looked into getting us another room. There were no more 2 BR suites available, so they put us into a 1 BR King suite, and a 1 BR king room. This was no problem (we still had more than enough space), and actually ended up being better because we had 2 bathrooms. This room was a little cleaner than the last; however, there were some minor areas that still should have been taken care of by housekeeping upon our arrival. The bathroom had piss on the seat. The walls around the mirror were marked with purple nail polish. This mirror also contained the dark black spots around the wall, like the other room. The bathroom door was chipped in different places. We also saw ants in this room as well; however, there were not as many as the first room. My guess is that the hotel has an ant problem. This hotel staff needs re training on cleaning their rooms, and how to keep things presentable. Other than that, the staff was nice and gave us no problems. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for just a weekend getaway. When looking for hotel rooms we wanted something with 2 separate bedrooms (large family), so we ended up choosing this one. Upon arrival we immediately noticed some areas of concern with the room. The cabinets had stains, as if they had not been wiped down. There were ants on the AC unit. The couch was dirty underneath a tray. These things were all bad; however, what we saw in the bathroom took the cake. After entering the bathroom, there was a huge roach on the ceiling of the bathroom wall. The bathroom mirror also contained dark black stains at the bottom. I'm not sure if this was mold, or what. We were going to try to put up with the room, but in the end, we decided to ask the front desk for new arrangements. After explaining the situation, the front desk staff were very understanding, and looked into getting us another room. There were no more 2 BR suites available, so they put us into a 1 BR King suite, and a 1 BR king room. This was no problem (we still had more than enough space), and actually ended up being better because we had 2 bathrooms. This room was a little cleaner than the last; however, there were some minor areas that still should have been taken care of by housekeeping upon our arrival. The bathroom had piss on...We stayed here for just a weekend getaway. When looking for hotel rooms we wanted something with 2 separate bedrooms (large family), so we ended up choosing this one. Upon arrival we immediately noticed some areas of concern with the room. The cabinets had stains, as if they had not been wiped down. There were ants on the AC unit. The couch was dirty underneath a tray. These things were all bad; however, what we saw in the bathroom took the cake. After entering the bathroom, there was a huge roach on the ceiling of the bathroom wall. The bathroom mirror also contained dark black stains at the bottom. I'm not sure if this was mold, or what. We were going to try to put up with the room, but in the end, we decided to ask the front desk for new arrangements. After explaining the situation, the front desk staff were very understanding, and looked into getting us another room. There were no more 2 BR suites available, so they put us into a 1 BR King suite, and a 1 BR king room. This was no problem (we still had more than enough space), and actually ended up being better because we had 2 bathrooms. This room was a little cleaner than the last; however, there were some minor areas that still should have been taken care of by housekeeping upon our arrival. The bathroom had piss on the seat. The walls around the mirror were marked with purple nail polish. This mirror also contained the dark black spots around the wall, like the other room. The bathroom door was chipped in different places. We also saw ants in this room as well; however, there were not as many as the first room. My guess is that the hotel has an ant problem. This hotel staff needs re training on cleaning their rooms, and how to keep things presentable. Other than that, the staff was nice and gave us no problems. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r500353436-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500353436</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Arguably my favorite Hotel in Houston</t>
+  </si>
+  <si>
+    <t>Great place to stay, great staff, only thing missing from the Hotel is an indoor pool, as it get super hot in Houston it's imposible to use a pool during the day. It does have a well mantain outdoor pool.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r460225644-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460225644</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>Very nice budget hotel part of Marriott Brand</t>
+  </si>
+  <si>
+    <t>very nice smaller hotel ,clean common area /rooms ,overall good quality hotel for the price, breakfast needs more varieties for people who do not eat pork /bacon but as a free breakfast option its fairly goodI recommend it for people in need of a hotel near that area !staff are very very helpful .my brother who needed an accessible suite was provided one when I called and requested one before check in ,room is spacious and as he is on a wheelchair and needed assistance with his wheelchair while getting on and off from car .Cody and veronica are a gem in this hotel ,they truly follow the best service and best customer service skills based on Marriott standard ,those 2 agents helped him so much and went out of their way to assist him .they deserve to be recognized by management for their outstanding professional skills which really makes this hotel a 5 * service hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>very nice smaller hotel ,clean common area /rooms ,overall good quality hotel for the price, breakfast needs more varieties for people who do not eat pork /bacon but as a free breakfast option its fairly goodI recommend it for people in need of a hotel near that area !staff are very very helpful .my brother who needed an accessible suite was provided one when I called and requested one before check in ,room is spacious and as he is on a wheelchair and needed assistance with his wheelchair while getting on and off from car .Cody and veronica are a gem in this hotel ,they truly follow the best service and best customer service skills based on Marriott standard ,those 2 agents helped him so much and went out of their way to assist him .they deserve to be recognized by management for their outstanding professional skills which really makes this hotel a 5 * service hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r459689331-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459689331</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Bad staff service attitude</t>
+  </si>
+  <si>
+    <t>Just checked out on 2/12. I had a pretty bad experience with this hotel. I have been to some hotel in Marriott such as Courtyard, Springhill, and Marriott and will be a Platinum Elite level after this stay. 
+When checking in, I was telling the staff that I need a quiet room and it is better to be away from elevator like corner room. The staff told me the room is quiet but I noticed that my room is preassigned and it seems like she didn't make sure it is a quiet room and just give me what was wrote on my check in card. 
+The room is in the high floor (fourth floor and it is the top floor). When I was going to sleep around 11:30 pm. I noticed that the wall is kind of think and there was a couple talking in the room next to mine so I could hear them. 
+I am a light sleeper so that is the reason I made a request while checking in. But, apparently, the staff didn't even check out if the room is in the corner or if anyone next to me. 
+I was very disappointed by the room arrangement. In the morning of next day, I told the other staff about the situation while checking out. The staff did apologize but it seems like the only thing they could do. 
+I was expecting the manager or supervisor came...Just checked out on 2/12. I had a pretty bad experience with this hotel. I have been to some hotel in Marriott such as Courtyard, Springhill, and Marriott and will be a Platinum Elite level after this stay. When checking in, I was telling the staff that I need a quiet room and it is better to be away from elevator like corner room. The staff told me the room is quiet but I noticed that my room is preassigned and it seems like she didn't make sure it is a quiet room and just give me what was wrote on my check in card. The room is in the high floor (fourth floor and it is the top floor). When I was going to sleep around 11:30 pm. I noticed that the wall is kind of think and there was a couple talking in the room next to mine so I could hear them. I am a light sleeper so that is the reason I made a request while checking in. But, apparently, the staff didn't even check out if the room is in the corner or if anyone next to me. I was very disappointed by the room arrangement. In the morning of next day, I told the other staff about the situation while checking out. The staff did apologize but it seems like the only thing they could do. I was expecting the manager or supervisor came to talk to me or the staff would have asked my contact but there was nothing. By the way, I was the gold member of Marriott. Usually, hotels in marriott treat gold members pretty well. For example, there was something happened when I stayed in another hotel. The staff did a quick response and follow up with me. (Andrew Bermejo, Front Office Supervisor, Courtyard by Marriott Vallejo Napa Valley.) So back to this hotel, it was expected for the same response and service for me, but I was totally wrong. Anyway, if you are the manager or supervisor of this hotel, you are welcomed to contact me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Just checked out on 2/12. I had a pretty bad experience with this hotel. I have been to some hotel in Marriott such as Courtyard, Springhill, and Marriott and will be a Platinum Elite level after this stay. 
+When checking in, I was telling the staff that I need a quiet room and it is better to be away from elevator like corner room. The staff told me the room is quiet but I noticed that my room is preassigned and it seems like she didn't make sure it is a quiet room and just give me what was wrote on my check in card. 
+The room is in the high floor (fourth floor and it is the top floor). When I was going to sleep around 11:30 pm. I noticed that the wall is kind of think and there was a couple talking in the room next to mine so I could hear them. 
+I am a light sleeper so that is the reason I made a request while checking in. But, apparently, the staff didn't even check out if the room is in the corner or if anyone next to me. 
+I was very disappointed by the room arrangement. In the morning of next day, I told the other staff about the situation while checking out. The staff did apologize but it seems like the only thing they could do. 
+I was expecting the manager or supervisor came...Just checked out on 2/12. I had a pretty bad experience with this hotel. I have been to some hotel in Marriott such as Courtyard, Springhill, and Marriott and will be a Platinum Elite level after this stay. When checking in, I was telling the staff that I need a quiet room and it is better to be away from elevator like corner room. The staff told me the room is quiet but I noticed that my room is preassigned and it seems like she didn't make sure it is a quiet room and just give me what was wrote on my check in card. The room is in the high floor (fourth floor and it is the top floor). When I was going to sleep around 11:30 pm. I noticed that the wall is kind of think and there was a couple talking in the room next to mine so I could hear them. I am a light sleeper so that is the reason I made a request while checking in. But, apparently, the staff didn't even check out if the room is in the corner or if anyone next to me. I was very disappointed by the room arrangement. In the morning of next day, I told the other staff about the situation while checking out. The staff did apologize but it seems like the only thing they could do. I was expecting the manager or supervisor came to talk to me or the staff would have asked my contact but there was nothing. By the way, I was the gold member of Marriott. Usually, hotels in marriott treat gold members pretty well. For example, there was something happened when I stayed in another hotel. The staff did a quick response and follow up with me. (Andrew Bermejo, Front Office Supervisor, Courtyard by Marriott Vallejo Napa Valley.) So back to this hotel, it was expected for the same response and service for me, but I was totally wrong. Anyway, if you are the manager or supervisor of this hotel, you are welcomed to contact me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r458526302-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458526302</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel but be cautious with your personal belongings</t>
+  </si>
+  <si>
+    <t>This is a nice well kept hotel  The common areas are clean and the outside property is well manicured. The breakfast buffet could use an update like some non pork items. Adrian at the front desk was very delightful and made me feel right at home. It was a delight to see her face everyday when we came in.  Housekeeping borders below-average/average depending on who services your room that day and I even  had to ask to have my room re-serviced a few times.  I had one experience where my credit was stolen from my room and used at Walmart.  I don't feel management addressed it well and it left a sour taste in my mouth. If it wasn't for Adrian and my son being in a daycare right down the street that I felt super comfortable with I would have moved. Instead I never let housekeeping clean my room without me present.  All in all it is a nice hotel especially for an extended stay but i wouldn't leave anything of value laying around.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>This is a nice well kept hotel  The common areas are clean and the outside property is well manicured. The breakfast buffet could use an update like some non pork items. Adrian at the front desk was very delightful and made me feel right at home. It was a delight to see her face everyday when we came in.  Housekeeping borders below-average/average depending on who services your room that day and I even  had to ask to have my room re-serviced a few times.  I had one experience where my credit was stolen from my room and used at Walmart.  I don't feel management addressed it well and it left a sour taste in my mouth. If it wasn't for Adrian and my son being in a daycare right down the street that I felt super comfortable with I would have moved. Instead I never let housekeeping clean my room without me present.  All in all it is a nice hotel especially for an extended stay but i wouldn't leave anything of value laying around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r437223138-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437223138</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Horrible Customer Service</t>
+  </si>
+  <si>
+    <t>The customer service I experienced here was horrible!! To be in a crappy situation already, we needed to just find a room for the night because we were not expecting to have to stay in Houston due to a medical emergency. I paid the regular rate even though I knew my sister was going to be emailing me a room rate sheet for a discounted rate since she works for Marriott. I was told by the employee when I got the sheet she could change the rate. It was 10:20 at night when my sister was able to email the sheet to me. When I went down to get the rate changed the employee said "You can get it changed tomorrow, I'm about to get off of my shift." Umm who tells a customer that? I've never experienced an employee just not wanting to help someone. And considering when I checked in she told me her shift didn't end till 11 she was still 30 minutes away from her shift ending.
+When I came back down the next day and talked with the Assistant GM he told me he could not change it.
+Instead of paying $35 we ended up having to pay $140 even though I did every thing I could on my side. I also emailed the GM and never even got a reply back. Then the Asst. GM tells me I should know the Marriott Policy... excuse...The customer service I experienced here was horrible!! To be in a crappy situation already, we needed to just find a room for the night because we were not expecting to have to stay in Houston due to a medical emergency. I paid the regular rate even though I knew my sister was going to be emailing me a room rate sheet for a discounted rate since she works for Marriott. I was told by the employee when I got the sheet she could change the rate. It was 10:20 at night when my sister was able to email the sheet to me. When I went down to get the rate changed the employee said "You can get it changed tomorrow, I'm about to get off of my shift." Umm who tells a customer that? I've never experienced an employee just not wanting to help someone. And considering when I checked in she told me her shift didn't end till 11 she was still 30 minutes away from her shift ending.When I came back down the next day and talked with the Assistant GM he told me he could not change it.Instead of paying $35 we ended up having to pay $140 even though I did every thing I could on my side. I also emailed the GM and never even got a reply back. Then the Asst. GM tells me I should know the Marriott Policy... excuse me? I think if the employee knew the policy in the first place and had actually wanted to help me I wouldn't be out an extra $100. Will never stay here again. Luckily another hotel worked with us and helped us out unlike this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>The customer service I experienced here was horrible!! To be in a crappy situation already, we needed to just find a room for the night because we were not expecting to have to stay in Houston due to a medical emergency. I paid the regular rate even though I knew my sister was going to be emailing me a room rate sheet for a discounted rate since she works for Marriott. I was told by the employee when I got the sheet she could change the rate. It was 10:20 at night when my sister was able to email the sheet to me. When I went down to get the rate changed the employee said "You can get it changed tomorrow, I'm about to get off of my shift." Umm who tells a customer that? I've never experienced an employee just not wanting to help someone. And considering when I checked in she told me her shift didn't end till 11 she was still 30 minutes away from her shift ending.
+When I came back down the next day and talked with the Assistant GM he told me he could not change it.
+Instead of paying $35 we ended up having to pay $140 even though I did every thing I could on my side. I also emailed the GM and never even got a reply back. Then the Asst. GM tells me I should know the Marriott Policy... excuse...The customer service I experienced here was horrible!! To be in a crappy situation already, we needed to just find a room for the night because we were not expecting to have to stay in Houston due to a medical emergency. I paid the regular rate even though I knew my sister was going to be emailing me a room rate sheet for a discounted rate since she works for Marriott. I was told by the employee when I got the sheet she could change the rate. It was 10:20 at night when my sister was able to email the sheet to me. When I went down to get the rate changed the employee said "You can get it changed tomorrow, I'm about to get off of my shift." Umm who tells a customer that? I've never experienced an employee just not wanting to help someone. And considering when I checked in she told me her shift didn't end till 11 she was still 30 minutes away from her shift ending.When I came back down the next day and talked with the Assistant GM he told me he could not change it.Instead of paying $35 we ended up having to pay $140 even though I did every thing I could on my side. I also emailed the GM and never even got a reply back. Then the Asst. GM tells me I should know the Marriott Policy... excuse me? I think if the employee knew the policy in the first place and had actually wanted to help me I wouldn't be out an extra $100. Will never stay here again. Luckily another hotel worked with us and helped us out unlike this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r431556993-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431556993</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Excellent Service from the Staff</t>
+  </si>
+  <si>
+    <t>Needed a place for Mom &amp; Dad to stay due to a medical emergency.  From hundreds of miles away, I was able to make room arrangements for them, and they were so very happy with their stay.  They will definitely be returning on their next trip to Houston.  We put them in a double queen room with mobility friendly amenities.  The roll-in shower definitely sealed the deal for Dad.  Room was very spacious and comfortable which made their stay so much better.  Thank you very much to the staff who were so helpful and accommodating to me and my parents.  I highly recommend this place.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r419866994-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419866994</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>2 bedroom suite!</t>
+  </si>
+  <si>
+    <t>Stayed in the 2 BR suite for one night for a quick trip to Houston. I always prefer suites when traveling with my family. Very clean room with super comfy beds! The kitchen was great as well. My only issue is that it is a small suite. I've stayed in many different 2 BR suites over the years and this was one of the smallest. It also only has one bathroom but we survived! Lol.Didn't try the breakfast or pool so can't give an opinion for those:)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r393047468-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>393047468</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>I am a medical professional and travel for 3 months at a time.  I am back in Houston and hard a hard time finding a nice place  I tried 2 other extended stays (for a few days each) and visited MANY more.  Just substandard.  Then I checked out this place.  It is great.  Clean, modern, and friendly.  I am in a one bedroom suite.  Plenty of room.  Rooms are "refreshed" every day.  Breakfast in the morning.  Exercise room, laundry, easy parking, and close to Sam Houston Pkwy so close enough to work at the Medical Center or Sugar Land and everything in between.  Very impressed and after 20 years of travel I'm not easily impressed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>I am a medical professional and travel for 3 months at a time.  I am back in Houston and hard a hard time finding a nice place  I tried 2 other extended stays (for a few days each) and visited MANY more.  Just substandard.  Then I checked out this place.  It is great.  Clean, modern, and friendly.  I am in a one bedroom suite.  Plenty of room.  Rooms are "refreshed" every day.  Breakfast in the morning.  Exercise room, laundry, easy parking, and close to Sam Houston Pkwy so close enough to work at the Medical Center or Sugar Land and everything in between.  Very impressed and after 20 years of travel I'm not easily impressed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r393023607-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>393023607</t>
+  </si>
+  <si>
+    <t>Good value, convenient</t>
+  </si>
+  <si>
+    <t>There is very little not to like about this friendly and convenient hotel. The free breakfast is very good and the rooms are well designed. But, the last time we stayed, there was a large group at the hotel--apparently visiting to attend a wedding. At times they took over the common areas, made a huge mess and lots of noise. We were staying on the first floor and heard them at all hours day and night. After speaking with the front desk we were moved to a much quieter room on the 4th floor. We'll be back again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r387651415-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387651415</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel with no in-house restaurant</t>
+  </si>
+  <si>
+    <t>A very comfortable stay with a spacious room along with a kitchen with all the required goodies.Has a small gym and swimming pool too.The biggest con is that there is no in-house restaurant and limited options outside within walking distance.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r378041342-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>378041342</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Good hotel at a very decent price</t>
+  </si>
+  <si>
+    <t>Stayed here for five nights for a business meeting. The rooms are clean and comfortable. Being an all suite hotel, the rooms have their own kitchen area. Check-in was quick and efficient. The front desk staff are very helpful. My air conditioner didn't always work as well. While it did cool off my room, it did not remove as much of the humidity as it should have. Maybe that's just the way it is in that Houston humidity. Breakfast is free here. Although I never partook of the breakfast buffet, several of my colleagues did and they were very pleased with the assortment. There is a pool and although it looked very inviting, I never used it as I was pretty busy. While there is a Cheddars restaurant directly across the street, and a Red Robin about a half-mile away, you will need a car if you stay here in order to go out to eat. Overall, I really liked this place and thought it was a good stay for the price. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for five nights for a business meeting. The rooms are clean and comfortable. Being an all suite hotel, the rooms have their own kitchen area. Check-in was quick and efficient. The front desk staff are very helpful. My air conditioner didn't always work as well. While it did cool off my room, it did not remove as much of the humidity as it should have. Maybe that's just the way it is in that Houston humidity. Breakfast is free here. Although I never partook of the breakfast buffet, several of my colleagues did and they were very pleased with the assortment. There is a pool and although it looked very inviting, I never used it as I was pretty busy. While there is a Cheddars restaurant directly across the street, and a Red Robin about a half-mile away, you will need a car if you stay here in order to go out to eat. Overall, I really liked this place and thought it was a good stay for the price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r369363812-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369363812</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel in a good location.  The staff does a good job giving it a personal touch and making it feel welcoming.  The suites are nice. Our suite had a fully equipped kitchen, a large living room, and two bedrooms which was perfect for the three of us. The free breakfast included both hot and cold items.  I had the egg and sausage muffin and a small chocolate muffin with coffee and juice and both were tasty (especially for free hotel food). If you're staying in this part of Houston, this hotel is a good choice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r369036256-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369036256</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First time at TownePlace and had a great stay. Located in a quiet hood. Arrived late and called to inform. Reception was warm and inviting. I found Adrianne (sp) to be a sweetie. Rooms were very clean and appointed with everything I need. Amazed at the number of amenities packed in room. Wifi free and consistent. Beds very comfortable and slept well. Breakfast area was clean and nice young man was holding things together and did a great job. Buffet provided the standards and something for all. Will stay here again. </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r355891642-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355891642</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Weekend Girl Scout Getaway</t>
+  </si>
+  <si>
+    <t>I was warmly greeted upon check in and the same at check out. The staff was really accommodating and the atmosphere was really nice. The free breakfast was not that great but the room had a kitchen and we made it happen.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r349200319-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349200319</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>Comfortable, Clean, Quiet Rooms</t>
+  </si>
+  <si>
+    <t>It's amazing how much the front desk staff can set the tone for a 1 night stay, and I admit that the lady working the front desk was very pleasant &amp; efficient for my very late arrival/ check-in. I had a 2nd floor room (out of 3 floors) that was surprisingly quiet, the complementary internet was very good, power outlet elevated just above the nightstands, and a fridge/microwave in the room. I probably paid a little more than I'd normally pay for a quick overnight in Houston, but it was worth the good night's sleep I was able to get.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Cody H, Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded February 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2016</t>
+  </si>
+  <si>
+    <t>It's amazing how much the front desk staff can set the tone for a 1 night stay, and I admit that the lady working the front desk was very pleasant &amp; efficient for my very late arrival/ check-in. I had a 2nd floor room (out of 3 floors) that was surprisingly quiet, the complementary internet was very good, power outlet elevated just above the nightstands, and a fridge/microwave in the room. I probably paid a little more than I'd normally pay for a quick overnight in Houston, but it was worth the good night's sleep I was able to get.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r340333000-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340333000</t>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+  </si>
+  <si>
+    <t>Party Central on Weekends</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for the weekend while visiting family in the Houston area. This TownePlace hotel is approx 1-2 years old, and the facilities are still in relatively good shape. Unfortunately, it appears that the hotel's low weekend special rates ($89/night) attracts young party groups. There were two separate parties on our floor (one of which I had to pound on the door at 5:00am and tell them to turn the music down.... after being greeted by a cloud of marijuana smoke as the door opened).  I'm not sure what the Manager can do about it, since it's hard to identify these kind of problems until they happen.  Good luck !MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Cody H, Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded January 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2016</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for the weekend while visiting family in the Houston area. This TownePlace hotel is approx 1-2 years old, and the facilities are still in relatively good shape. Unfortunately, it appears that the hotel's low weekend special rates ($89/night) attracts young party groups. There were two separate parties on our floor (one of which I had to pound on the door at 5:00am and tell them to turn the music down.... after being greeted by a cloud of marijuana smoke as the door opened).  I'm not sure what the Manager can do about it, since it's hard to identify these kind of problems until they happen.  Good luck !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r318402713-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318402713</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>I have spent a full one month in two bedroom suite here with my wife and two kids and I won't hesitate to say we loved every single day.Rooms are very clean and very well designed and fully furnished.The best part of the hotel is free shuttle under 3 miles of radius which is very useful for those who don't/can't drive in Houston.Staffs are very friendly and helpful specially Coddy and Adrien. Hotel has small gym and a swimming pool which are quite relaxing. Continental breakfast is sufficient to start your day though it has limited menu options.Overall I would rate 5 out of 5 and surely recommend for a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I have spent a full one month in two bedroom suite here with my wife and two kids and I won't hesitate to say we loved every single day.Rooms are very clean and very well designed and fully furnished.The best part of the hotel is free shuttle under 3 miles of radius which is very useful for those who don't/can't drive in Houston.Staffs are very friendly and helpful specially Coddy and Adrien. Hotel has small gym and a swimming pool which are quite relaxing. Continental breakfast is sufficient to start your day though it has limited menu options.Overall I would rate 5 out of 5 and surely recommend for a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r313775661-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>313775661</t>
+  </si>
+  <si>
+    <t>09/26/2015</t>
+  </si>
+  <si>
+    <t>Great For Business Trips</t>
+  </si>
+  <si>
+    <t>This Hotel is great for what it is built for, business trips and extended stays. Starting from the smooth check-in I was offered a higher floor room like what i asked for.The room is actually rather small, but is very comfortable and has all the amenities you can ask for. A big fridge, microwave, cooker, dish washer, dishes and utensils, and a 32-inch flat-screen. I also liked the desk so much as I tend to work on my laptop too often.The free Wifi was fast and more than enough.Downsides for me are:1- Breakfast: I didn't like breakfast there.It lacked variety. Although this is expected from Hotels in this category, I have seen similar hotels make a slightly better breakfast.2-Shower: I was on the fourth and last floor and the water pressure in the shower was low.Overall a nice hotel in a nice location.Would definitely recommend it to other and would like stay there again if I'm in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>This Hotel is great for what it is built for, business trips and extended stays. Starting from the smooth check-in I was offered a higher floor room like what i asked for.The room is actually rather small, but is very comfortable and has all the amenities you can ask for. A big fridge, microwave, cooker, dish washer, dishes and utensils, and a 32-inch flat-screen. I also liked the desk so much as I tend to work on my laptop too often.The free Wifi was fast and more than enough.Downsides for me are:1- Breakfast: I didn't like breakfast there.It lacked variety. Although this is expected from Hotels in this category, I have seen similar hotels make a slightly better breakfast.2-Shower: I was on the fourth and last floor and the water pressure in the shower was low.Overall a nice hotel in a nice location.Would definitely recommend it to other and would like stay there again if I'm in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r312986176-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>312986176</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>Quiet, Clean, and Friendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty new hotel. Rooms are a little small but comfortable. Staff was very friendly and accommodating. Breakfast was a typical fast breakfast but who can complain when it's included with the stay. Little difficult to navigate around the streets of the hotel. Could use a bar bit Cheddars is across the busy street. I'll stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r286539803-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286539803</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>MadiSen Birthday</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay you definitely get your money's worth service was great rooms were spacious the staff was very friendly we were there for my daughters birthday and they even gave her a small gift will be returning soon  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Alberto H, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded July 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2015</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay you definitely get your money's worth service was great rooms were spacious the staff was very friendly we were there for my daughters birthday and they even gave her a small gift will be returning soon  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r285564239-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>285564239</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We're staying for a week for a 4th of July family vacation.Pros: friendly employees, clean comfortable rooms, free breakfast, full kitchen, sofa bed, decent price &amp; location just off of highway.Cons: low shower pressure, no oven, thin walls, room on the small sideOverall we had a great stay and would come back if in town. We always enjoy Marriott hotels and this one didn't disappoint. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Alberto H, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2015</t>
+  </si>
+  <si>
+    <t>We're staying for a week for a 4th of July family vacation.Pros: friendly employees, clean comfortable rooms, free breakfast, full kitchen, sofa bed, decent price &amp; location just off of highway.Cons: low shower pressure, no oven, thin walls, room on the small sideOverall we had a great stay and would come back if in town. We always enjoy Marriott hotels and this one didn't disappoint. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r283338123-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283338123</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Clean, Pleasant Staff, Great Hotel</t>
+  </si>
+  <si>
+    <t>My business stay at the hotel was for 1 week.  I found the hotel extremely clean and the service team exceptional.  Luis, the hotel van driver was delightful and professional.  On the 3rd day, I experienced some problems with my asthma and needed to find an Urgent Care facility.  The general manager, Alberto Hernandez quickly found a nearby location. The next day, Mr. Hernandez even followed up with a telephone call to make sure I was doing well.I would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Alberto H, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>My business stay at the hotel was for 1 week.  I found the hotel extremely clean and the service team exceptional.  Luis, the hotel van driver was delightful and professional.  On the 3rd day, I experienced some problems with my asthma and needed to find an Urgent Care facility.  The general manager, Alberto Hernandez quickly found a nearby location. The next day, Mr. Hernandez even followed up with a telephone call to make sure I was doing well.I would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r245149120-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245149120</t>
+  </si>
+  <si>
+    <t>12/19/2014</t>
+  </si>
+  <si>
+    <t>New TownePlace suites, but for how long?</t>
+  </si>
+  <si>
+    <t>I stayed recently at this newer TownePlace Suites Hotel in the Westchase district of Houston.  It's a fairly new property, but it seemed like it was already showing some wear.  My room was on the fourth floor, and it took a very long time to get hot water to the shower.  Also, I understand the need to conserve, but the shower flow was minimal at best.  I stayed two nights, and my room was never touched by housekeeping while I was there.  A little disconcerting.  The desk staff was friendly, and the breakfast was fine, if not really plentiful.  I actually did not notice a great deal of noise from the highway, although it is definitely right next to the property.  The rates were actually pretty steep; cannot say that I would choose this property again when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Jason D, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded December 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2014</t>
+  </si>
+  <si>
+    <t>I stayed recently at this newer TownePlace Suites Hotel in the Westchase district of Houston.  It's a fairly new property, but it seemed like it was already showing some wear.  My room was on the fourth floor, and it took a very long time to get hot water to the shower.  Also, I understand the need to conserve, but the shower flow was minimal at best.  I stayed two nights, and my room was never touched by housekeeping while I was there.  A little disconcerting.  The desk staff was friendly, and the breakfast was fine, if not really plentiful.  I actually did not notice a great deal of noise from the highway, although it is definitely right next to the property.  The rates were actually pretty steep; cannot say that I would choose this property again when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r242857099-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242857099</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t>Great find!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I thought this hotel was a great find!  It is new, modern, clean and the staff was very friendly.  It is a small suite, which is perfect for a business traveler. I would stay here again!  My only complaint, would be the outside noise from the highway, but that cannot be helped!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r239508604-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239508604</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>Compact suite, convenient, a bit noisy</t>
+  </si>
+  <si>
+    <t>I would give this hotel a  a "Pretty good." Somewhere between average and very good. Very compact suite. The door opens right into the small kitchen, then a quick 3 steps into a small room. But, in this small space, it does fit most of the conveniences you need. Full size fridge, dishwasher, tiny stovetop with 2 burners, cabinets and utensils for cooking. Nice, big closet. The bed was a Beautyrest king, and although a bit firm, was much more comfortable than the average hotel bed. Nice desk and work area with good lighting, unusual for a hotel. Decent fitness room, and decent buffet breakfast included, with boiled eggs and m.y.o. waffles. The main drawback is that the walls are thin, and the rooms can be pretty noisy. Lots of road noise from the Beltway 8 also. Hotel is fairly new and still clean and fresh. Hotel staff very nice and helpful. Close-by parking a plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Jason D, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded November 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2014</t>
+  </si>
+  <si>
+    <t>I would give this hotel a  a "Pretty good." Somewhere between average and very good. Very compact suite. The door opens right into the small kitchen, then a quick 3 steps into a small room. But, in this small space, it does fit most of the conveniences you need. Full size fridge, dishwasher, tiny stovetop with 2 burners, cabinets and utensils for cooking. Nice, big closet. The bed was a Beautyrest king, and although a bit firm, was much more comfortable than the average hotel bed. Nice desk and work area with good lighting, unusual for a hotel. Decent fitness room, and decent buffet breakfast included, with boiled eggs and m.y.o. waffles. The main drawback is that the walls are thin, and the rooms can be pretty noisy. Lots of road noise from the Beltway 8 also. Hotel is fairly new and still clean and fresh. Hotel staff very nice and helpful. Close-by parking a plus.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1491,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1523,2693 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>54</v>
+      </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>88</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>156</v>
+      </c>
+      <c r="J15" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>160</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" t="s">
+        <v>102</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>167</v>
+      </c>
+      <c r="X16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>102</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>182</v>
+      </c>
+      <c r="X18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K20" t="s">
+        <v>193</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>195</v>
+      </c>
+      <c r="O20" t="s">
+        <v>88</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>198</v>
+      </c>
+      <c r="J21" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" t="s">
+        <v>201</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>202</v>
+      </c>
+      <c r="X21" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>205</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" t="s">
+        <v>209</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>210</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23" t="s">
+        <v>102</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>219</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>220</v>
+      </c>
+      <c r="J24" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" t="s">
+        <v>223</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>224</v>
+      </c>
+      <c r="O24" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>224</v>
+      </c>
+      <c r="O25" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s">
+        <v>234</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>235</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>237</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>238</v>
+      </c>
+      <c r="J27" t="s">
+        <v>232</v>
+      </c>
+      <c r="K27" t="s">
+        <v>239</v>
+      </c>
+      <c r="L27" t="s">
+        <v>240</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>235</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>246</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" t="s">
+        <v>251</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>252</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>255</v>
+      </c>
+      <c r="J30" t="s">
+        <v>256</v>
+      </c>
+      <c r="K30" t="s">
+        <v>257</v>
+      </c>
+      <c r="L30" t="s">
+        <v>258</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>246</v>
+      </c>
+      <c r="O30" t="s">
+        <v>102</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>260</v>
+      </c>
+      <c r="J31" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" t="s">
+        <v>263</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>264</v>
+      </c>
+      <c r="O31" t="s">
+        <v>102</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>266</v>
+      </c>
+      <c r="J32" t="s">
+        <v>267</v>
+      </c>
+      <c r="K32" t="s">
+        <v>268</v>
+      </c>
+      <c r="L32" t="s">
+        <v>269</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>270</v>
+      </c>
+      <c r="O32" t="s">
+        <v>102</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33" t="s">
+        <v>274</v>
+      </c>
+      <c r="L33" t="s">
+        <v>275</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>276</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>277</v>
+      </c>
+      <c r="X33" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>281</v>
+      </c>
+      <c r="J34" t="s">
+        <v>282</v>
+      </c>
+      <c r="K34" t="s">
+        <v>283</v>
+      </c>
+      <c r="L34" t="s">
+        <v>284</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>285</v>
+      </c>
+      <c r="O34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>286</v>
+      </c>
+      <c r="X34" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>289</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>290</v>
+      </c>
+      <c r="J35" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" t="s">
+        <v>292</v>
+      </c>
+      <c r="L35" t="s">
+        <v>293</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>294</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>296</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>297</v>
+      </c>
+      <c r="J36" t="s">
+        <v>298</v>
+      </c>
+      <c r="K36" t="s">
+        <v>299</v>
+      </c>
+      <c r="L36" t="s">
+        <v>300</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>294</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>302</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>303</v>
+      </c>
+      <c r="J37" t="s">
+        <v>304</v>
+      </c>
+      <c r="K37" t="s">
+        <v>305</v>
+      </c>
+      <c r="L37" t="s">
+        <v>306</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>294</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>308</v>
+      </c>
+      <c r="J38" t="s">
+        <v>309</v>
+      </c>
+      <c r="K38" t="s">
+        <v>310</v>
+      </c>
+      <c r="L38" t="s">
+        <v>311</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>312</v>
+      </c>
+      <c r="O38" t="s">
+        <v>102</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>313</v>
+      </c>
+      <c r="X38" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>316</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>317</v>
+      </c>
+      <c r="J39" t="s">
+        <v>318</v>
+      </c>
+      <c r="K39" t="s">
+        <v>319</v>
+      </c>
+      <c r="L39" t="s">
+        <v>320</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O39" t="s">
+        <v>102</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>322</v>
+      </c>
+      <c r="X39" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>325</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>326</v>
+      </c>
+      <c r="J40" t="s">
+        <v>327</v>
+      </c>
+      <c r="K40" t="s">
+        <v>328</v>
+      </c>
+      <c r="L40" t="s">
+        <v>329</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>312</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>330</v>
+      </c>
+      <c r="X40" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>333</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>334</v>
+      </c>
+      <c r="J41" t="s">
+        <v>335</v>
+      </c>
+      <c r="K41" t="s">
+        <v>336</v>
+      </c>
+      <c r="L41" t="s">
+        <v>337</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>338</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>339</v>
+      </c>
+      <c r="X41" t="s">
+        <v>340</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>342</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>343</v>
+      </c>
+      <c r="J42" t="s">
+        <v>344</v>
+      </c>
+      <c r="K42" t="s">
+        <v>345</v>
+      </c>
+      <c r="L42" t="s">
+        <v>346</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>338</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>347</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>348</v>
+      </c>
+      <c r="J43" t="s">
+        <v>349</v>
+      </c>
+      <c r="K43" t="s">
+        <v>350</v>
+      </c>
+      <c r="L43" t="s">
+        <v>351</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>352</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>353</v>
+      </c>
+      <c r="X43" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_663.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_663.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="563">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,138 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r608072817-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>6820799</t>
+  </si>
+  <si>
+    <t>608072817</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>My Stay</t>
+  </si>
+  <si>
+    <t>I was very impressed. The hotel was very clean.The beds were comfortable. The staff was very professional and nice. I would defiantly recommend this hotel.I just wish the eggs were scramble with no cheese added.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Theresa C, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>I was very impressed. The hotel was very clean.The beds were comfortable. The staff was very professional and nice. I would defiantly recommend this hotel.I just wish the eggs were scramble with no cheese added.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r607160842-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>607160842</t>
+  </si>
+  <si>
+    <t>08/16/2018</t>
+  </si>
+  <si>
+    <t>Great stay and amazing amenities</t>
+  </si>
+  <si>
+    <t>Enjoyed the stay at the TownePlace in Westchase. The property is well managed and maintained clean. The 88 Boiling Crawfish and Seafood nearby is a plus! Make a visit if you love seafood and southern food.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Enjoyed the stay at the TownePlace in Westchase. The property is well managed and maintained clean. The 88 Boiling Crawfish and Seafood nearby is a plus! Make a visit if you love seafood and southern food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r606155152-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>606155152</t>
+  </si>
+  <si>
     <t>08/13/2018</t>
   </si>
   <si>
+    <t>Excellent Customer Service a this Hotel</t>
+  </si>
+  <si>
+    <t>I love staying at this facility. I call each time to secure a top floor room and Chastity and others at the front desk always delivers. I cannot say enough about how wonderful the staff is at this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>I love staying at this facility. I call each time to secure a top floor room and Chastity and others at the front desk always delivers. I cannot say enough about how wonderful the staff is at this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r598975220-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>598975220</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Traffic can be a challenge here (but you are in Houston, remember)</t>
+  </si>
+  <si>
+    <t>This is a relatively new property and the physical plant reflects that fact. The lobby area is very nice. The rooms are average. The good news about the location is that, unlike many Houston hotels along I-10, it is far enough away so that traffic noise will not keep you awake. The bad news about the location is that the entrance is forces you to deal with the intersection of Barker Cypress and Park Row which is a VERY busy intersection and will add many minutes to your commute. During my particular stay, it took me almost 30 minutes to travel half a mile due to problems with signals. The last point to mention is that I am an Elite frequent traveler with Marriott and this was the first property in years where I was not recognized as such. When I asked about any comps (breakfast, water, snack, anything?), the front desk person said "No, we are a franchise."MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Theresa C, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded July 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2018</t>
+  </si>
+  <si>
+    <t>This is a relatively new property and the physical plant reflects that fact. The lobby area is very nice. The rooms are average. The good news about the location is that, unlike many Houston hotels along I-10, it is far enough away so that traffic noise will not keep you awake. The bad news about the location is that the entrance is forces you to deal with the intersection of Barker Cypress and Park Row which is a VERY busy intersection and will add many minutes to your commute. During my particular stay, it took me almost 30 minutes to travel half a mile due to problems with signals. The last point to mention is that I am an Elite frequent traveler with Marriott and this was the first property in years where I was not recognized as such. When I asked about any comps (breakfast, water, snack, anything?), the front desk person said "No, we are a franchise."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r596754106-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>596754106</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Great please to stay in Houston</t>
+  </si>
+  <si>
+    <t>Customer service was great.  Great shuttle option with 5 mile range.  Really good free breakfast.  Room was nice with big refrigerator, sink, microwave- even small stove.  I was really impressed.Remote for TV had low batteries and needed to be replaced.  I called downstairs and someone brought up new batteries fairly quickly.  Location was good but there was some freeway noise which is why there is a 4- would be 4 1/2 if I could do that.  My new place to stay for business in HoustonMoreShow less</t>
+  </si>
+  <si>
+    <t>Theresa C, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded July 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2018</t>
+  </si>
+  <si>
+    <t>Customer service was great.  Great shuttle option with 5 mile range.  Really good free breakfast.  Room was nice with big refrigerator, sink, microwave- even small stove.  I was really impressed.Remote for TV had low batteries and needed to be replaced.  I called downstairs and someone brought up new batteries fairly quickly.  Location was good but there was some freeway noise which is why there is a 4- would be 4 1/2 if I could do that.  My new place to stay for business in HoustonMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r590712605-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>6820799</t>
-  </si>
-  <si>
     <t>590712605</t>
   </si>
   <si>
@@ -177,9 +297,6 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Theresa C, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded July 7, 2018</t>
   </si>
   <si>
@@ -237,6 +354,54 @@
     <t>I was in Houston for business travel and TownPlace Suites was very close to my client.The hotel is what you expect from a Marriott brand hotel.  The staff is friendly.  The rooms are clean.  The beds are very comfy.The rooms come with a little kitchenette, which is nice.  The breakfast bar has the standard fare, but also had international breakfast options serving Indian food which was a pleasant surprise.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r582235560-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582235560</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feels like home </t>
+  </si>
+  <si>
+    <t>Everything was wonderful comfortable beds super clean wonderful staff and easy check in and check out perfect location with easy access to major highway and being directly across from cheddars was a bonus MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Everything was wonderful comfortable beds super clean wonderful staff and easy check in and check out perfect location with easy access to major highway and being directly across from cheddars was a bonus More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r576523105-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>576523105</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Best stay at hotel in a while!</t>
+  </si>
+  <si>
+    <t>I cannot emphasize how happy I am leaving this hotel today. The service and stay has been nothing but exceptional. And a big shout out to Paola at the front desk for her fantastic professionalism. Wow!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Theresa C, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2018</t>
+  </si>
+  <si>
+    <t>I cannot emphasize how happy I am leaving this hotel today. The service and stay has been nothing but exceptional. And a big shout out to Paola at the front desk for her fantastic professionalism. Wow!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r575298454-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -252,18 +417,6 @@
     <t>This was our first stay here, and we will stay here again! Had a very quiet room on the 4th floor. Very clean. Comfortable bed. Very clean bathroom. Spacious room. The kitchen area even had a dishwasher! Super long closet. Very good breakfast. Internet fast at business center.MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Theresa C, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded May 11, 2018</t>
-  </si>
-  <si>
-    <t>Responded May 11, 2018</t>
-  </si>
-  <si>
     <t>This was our first stay here, and we will stay here again! Had a very quiet room on the 4th floor. Very clean. Comfortable bed. Very clean bathroom. Spacious room. The kitchen area even had a dishwasher! Super long closet. Very good breakfast. Internet fast at business center.More</t>
   </si>
   <si>
@@ -309,6 +462,42 @@
     <t>I always stay in this hotel whenever I am in Houston. I just love the place. The food is good, the room is clean, all amenities great. The parking is not an issue. Market meets my needs. It is like a home away from home. I enjoyed every minute of my stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r571062069-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571062069</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>This is the cleanest hotel I've stayed and the staff is very courteous under the leadership of Theresa Clay the manager.i would recommend this hotel to every one.if you're in Houston it a nice location and especially close to restaurants and the city.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the cleanest hotel I've stayed and the staff is very courteous under the leadership of Theresa Clay the manager.i would recommend this hotel to every one.if you're in Houston it a nice location and especially close to restaurants and the city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r570795309-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570795309</t>
+  </si>
+  <si>
+    <t>04/03/2018</t>
+  </si>
+  <si>
+    <t>Birthday Week Work Travel...Feeling Loved!</t>
+  </si>
+  <si>
+    <t>I stay here 3 to 4 nights a week. The staff is friendly and try to make time away from home as enjoyable as possible. I had a birthday on the road in late March. They went above and beyond to decorate my room with balloons, elephants made out of towels, bought me cupcakes and all signed a personal card. They do little things like this all the time to let me know I am appreciated as a customer!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay here 3 to 4 nights a week. The staff is friendly and try to make time away from home as enjoyable as possible. I had a birthday on the road in late March. They went above and beyond to decorate my room with balloons, elephants made out of towels, bought me cupcakes and all signed a personal card. They do little things like this all the time to let me know I am appreciated as a customer!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r570528055-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -324,9 +513,6 @@
     <t>I am not happy at all with my stay here. I was charged a smoking fee when in fact I’m a  nonsmoker and I’m very asthmatic and I have medical papers to prove it . Plus my guest was pregnant who can’t even be around smoking. I was not notified of this charge either . Absolutely outrageous. Called to speak to a manager and the front desk staff was rude and actually called me a b**** after I asked for proof of photos . When I called the 2nd time I was told to wait till the manager got back. Never had a problem like this with any other Marriot hotel. I called for extra towels and they were never brought to me. I will be following up with corporate Tommorow. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Theresa C, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded April 3, 2018</t>
   </si>
   <si>
@@ -387,6 +573,39 @@
     <t>My stay was nothing short of amazing. The staff and hotel manager made me feel welcomed and helped me navigate my way around the city. The front desk greeted me with a smile while I was on a three day getaway.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r569376161-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569376161</t>
+  </si>
+  <si>
+    <t>Ms. Phillips</t>
+  </si>
+  <si>
+    <t>Had a marvelous stay and great place. Staff were friendly caring and pleasant, starting from the front desk. Family friendly with great hospitality all the way around. I highly recommend and I will be returning with my family and friends over the summer.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a marvelous stay and great place. Staff were friendly caring and pleasant, starting from the front desk. Family friendly with great hospitality all the way around. I highly recommend and I will be returning with my family and friends over the summer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r569126526-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569126526</t>
+  </si>
+  <si>
+    <t>03/27/2018</t>
+  </si>
+  <si>
+    <t>Rue!!!!</t>
+  </si>
+  <si>
+    <t>Nice Hotel, this was my second stay for consecutive days at this hotel. I stayed recently March 22-25, i was supposed to check out on the 26th, I went to the front desk to let the attendant know I had a mouse in my room and i was checking out, not at one time did she offer another room or apologize!!!! i was seriously furious about the situation when I left the hotel! Then expecting at least a phone call from the general manger the next day expressing his apology did not happen. This post surly could have been avoided. Here it is March 27th and still no call!MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice Hotel, this was my second stay for consecutive days at this hotel. I stayed recently March 22-25, i was supposed to check out on the 26th, I went to the front desk to let the attendant know I had a mouse in my room and i was checking out, not at one time did she offer another room or apologize!!!! i was seriously furious about the situation when I left the hotel! Then expecting at least a phone call from the general manger the next day expressing his apology did not happen. This post surly could have been avoided. Here it is March 27th and still no call!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r566682110-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -462,6 +681,54 @@
     <t>The room is VERY small - not at all what I expected for a Marriott-brand hotel. The walls seemed thin - we could hear EVERYTHING in the rooms around us. The bed was comfortable. The Staff is very nice. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r556395832-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556395832</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t>Awesome place to stay!</t>
+  </si>
+  <si>
+    <t>Townplace Suites impress us each and every time, even in different locations. I feel like I'm at home so I highly recommend staying at one of their properties! Staff is very nice, breakfast is great, and every need is anticipated! MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Townplace Suites impress us each and every time, even in different locations. I feel like I'm at home so I highly recommend staying at one of their properties! Staff is very nice, breakfast is great, and every need is anticipated! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r541971669-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541971669</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>Jorge Flores in Guest Services provided exceptional service when I needed to change my room to a different floor. He was able to provide me with the necessary accommodation and continued to follow up when he said he would. I would highly recommend this hotel for your business or leisure stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Alberto H, Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Jorge Flores in Guest Services provided exceptional service when I needed to change my room to a different floor. He was able to provide me with the necessary accommodation and continued to follow up when he said he would. I would highly recommend this hotel for your business or leisure stay. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r540478363-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -477,9 +744,6 @@
     <t>We've stayed here several times in the past and have moved this hotel to the top of our list when visiting Houston. The location is right off a major freeway, easy in and out, close to good restaurants, and near enough to downtown and the Galleria. The staff is always courteous and accommodating. Jorge F. made this stay extra special and we appreciate his service with a smile and lots of laughs. We stayed on the 3rd floor which was nice and quiet.  Our suite was clean and bed was comfortable.  We will be back!MoreShow less</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
     <t>We've stayed here several times in the past and have moved this hotel to the top of our list when visiting Houston. The location is right off a major freeway, easy in and out, close to good restaurants, and near enough to downtown and the Galleria. The staff is always courteous and accommodating. Jorge F. made this stay extra special and we appreciate his service with a smile and lots of laughs. We stayed on the 3rd floor which was nice and quiet.  Our suite was clean and bed was comfortable.  We will be back!More</t>
   </si>
   <si>
@@ -528,6 +792,51 @@
     <t>I stayed at this hotel with my family for two nights. The accommodation was suitable for a family with a young child and baby. The kitchenette was nice and the breakfast on mornings was tasty enough with fair options (cereal, waffles, bread and eggs, sausages, fruit, yogurt etc). The main concern we had was that in that short stay we spotted and killed more than 12 small cockroaches. We reported to the front desk, they were aware of it and apologized, said that the exterminators were due for a visit and even gave us bug spray but it did not deter the unease about leaving things open or our for fear of the chance that roaches would get in.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r529863318-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>529863318</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Two Week Stay</t>
+  </si>
+  <si>
+    <t>I'm in town on business and managed to stay in one place more then a couple of days. This is located near busy streets and the freeway. Getting out of the parking lot puts you on a one way direction on Westpark Drive. Traffic is moderate to heavy depending on time of day. I discovered an exit out the other side and managed to find a way onto Sam Houston allowing me to go in a different direction. Overall traffic and the roadways here in Houston can be challenging. I've noticed many roads here are in deplorable condition. Don't drink anything while driving unless it has a cap. Be ready for toll charges it seems every road has one. I managed to avoid most by planning ahead. If it's your first time here and you're renting a car get the toll add on at the rental agency. The hotel is nice. It's well maintained. The staff was friendly and helpful. The breakfast food is standard like all other free breakfast amenities. My extended stay here was a good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>I'm in town on business and managed to stay in one place more then a couple of days. This is located near busy streets and the freeway. Getting out of the parking lot puts you on a one way direction on Westpark Drive. Traffic is moderate to heavy depending on time of day. I discovered an exit out the other side and managed to find a way onto Sam Houston allowing me to go in a different direction. Overall traffic and the roadways here in Houston can be challenging. I've noticed many roads here are in deplorable condition. Don't drink anything while driving unless it has a cap. Be ready for toll charges it seems every road has one. I managed to avoid most by planning ahead. If it's your first time here and you're renting a car get the toll add on at the rental agency. The hotel is nice. It's well maintained. The staff was friendly and helpful. The breakfast food is standard like all other free breakfast amenities. My extended stay here was a good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r529154127-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>529154127</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Small but clean</t>
+  </si>
+  <si>
+    <t>Staying in odd number rooms will be facing backside of hotel which is likely quieter. Even number rooms you can hear the traffic. Outside pool is small. Nice large center lobby table for gatherings. Room was clean, elevator a little slow but there are 2.MoreShow less</t>
+  </si>
+  <si>
+    <t>Roberto D, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Staying in odd number rooms will be facing backside of hotel which is likely quieter. Even number rooms you can hear the traffic. Outside pool is small. Nice large center lobby table for gatherings. Room was clean, elevator a little slow but there are 2.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r515555763-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -588,6 +897,39 @@
     <t>Great place to stay, great staff, only thing missing from the Hotel is an indoor pool, as it get super hot in Houston it's imposible to use a pool during the day. It does have a well mantain outdoor pool.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r484516608-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484516608</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t>Great option in Houston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed 3 days with my wife a 3 years son. The hotel is very nice with new furniture, modern and very clean. They have good alternatives with an assortment of food for breakfast and the fitness center is good for a daily workout. Definitively recommended and for sure will stay here in my next trip. </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r462728730-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462728730</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t>Family bd</t>
+  </si>
+  <si>
+    <t>Very nice pillow top sleeper .friendly staff,clean rooms. Good breakfast shuttle 3miles ,  no heated pool . Room has kitchenette, microwave, stove,fridge,coffee maker toaster dishes pots forks spoons etc just bring the groceries</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r460225644-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -601,9 +943,6 @@
   </si>
   <si>
     <t>very nice smaller hotel ,clean common area /rooms ,overall good quality hotel for the price, breakfast needs more varieties for people who do not eat pork /bacon but as a free breakfast option its fairly goodI recommend it for people in need of a hotel near that area !staff are very very helpful .my brother who needed an accessible suite was provided one when I called and requested one before check in ,room is spacious and as he is on a wheelchair and needed assistance with his wheelchair while getting on and off from car .Cody and veronica are a gem in this hotel ,they truly follow the best service and best customer service skills based on Marriott standard ,those 2 agents helped him so much and went out of their way to assist him .they deserve to be recognized by management for their outstanding professional skills which really makes this hotel a 5 * service hotelMoreShow less</t>
-  </si>
-  <si>
-    <t>February 2017</t>
   </si>
   <si>
     <t>very nice smaller hotel ,clean common area /rooms ,overall good quality hotel for the price, breakfast needs more varieties for people who do not eat pork /bacon but as a free breakfast option its fairly goodI recommend it for people in need of a hotel near that area !staff are very very helpful .my brother who needed an accessible suite was provided one when I called and requested one before check in ,room is spacious and as he is on a wheelchair and needed assistance with his wheelchair while getting on and off from car .Cody and veronica are a gem in this hotel ,they truly follow the best service and best customer service skills based on Marriott standard ,those 2 agents helped him so much and went out of their way to assist him .they deserve to be recognized by management for their outstanding professional skills which really makes this hotel a 5 * service hotelMore</t>
@@ -664,6 +1003,57 @@
     <t>This is a nice well kept hotel  The common areas are clean and the outside property is well manicured. The breakfast buffet could use an update like some non pork items. Adrian at the front desk was very delightful and made me feel right at home. It was a delight to see her face everyday when we came in.  Housekeeping borders below-average/average depending on who services your room that day and I even  had to ask to have my room re-serviced a few times.  I had one experience where my credit was stolen from my room and used at Walmart.  I don't feel management addressed it well and it left a sour taste in my mouth. If it wasn't for Adrian and my son being in a daycare right down the street that I felt super comfortable with I would have moved. Instead I never let housekeeping clean my room without me present.  All in all it is a nice hotel especially for an extended stay but i wouldn't leave anything of value laying around.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r452172753-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452172753</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>One Night Stay</t>
+  </si>
+  <si>
+    <t>Stayed here for one night, the room was fine. Didn't use the kitchenette. The bed was comfy, however the sheets were a little bit on the wore side. The room was nice enough, however when I showered and grabbed my towel, a bug popped out! I didn't make a big deal about it and just let it go. Free wifi, parking and breakfast - though we didn't try the breakfast. There is a Cheddars across the street, we dropped in for a night cap, but the restaurant isn't very nice; customers were rude to staff, the margaritas were vile and there were police officers patrolling the restaurant. Wouldn't recommend nipping in there. Though the hotel was fine. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Cody H, Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for one night, the room was fine. Didn't use the kitchenette. The bed was comfy, however the sheets were a little bit on the wore side. The room was nice enough, however when I showered and grabbed my towel, a bug popped out! I didn't make a big deal about it and just let it go. Free wifi, parking and breakfast - though we didn't try the breakfast. There is a Cheddars across the street, we dropped in for a night cap, but the restaurant isn't very nice; customers were rude to staff, the margaritas were vile and there were police officers patrolling the restaurant. Wouldn't recommend nipping in there. Though the hotel was fine. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r440678761-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440678761</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel last weekend. I can't tell you how much I enjoyed myself here. Adrianna, hopefully I'm spelling her name right, was exquisite! I did a mobile check in. She greeted me by my last name, told me what floor I was on, which I requested high floor, told me what time breakfast was, and greeted my fiancee as well. The room was fantastic! I reserved a King Suite and that's exactly what it was. The breakfast was great. I'm not a fan of waffles, but my fiancee is lol. I go to Houston all the time and I can say that I will be staying there every time I decide to go. Thanks for being an awesome hotel and having a great staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel last weekend. I can't tell you how much I enjoyed myself here. Adrianna, hopefully I'm spelling her name right, was exquisite! I did a mobile check in. She greeted me by my last name, told me what floor I was on, which I requested high floor, told me what time breakfast was, and greeted my fiancee as well. The room was fantastic! I reserved a King Suite and that's exactly what it was. The breakfast was great. I'm not a fan of waffles, but my fiancee is lol. I go to Houston all the time and I can say that I will be staying there every time I decide to go. Thanks for being an awesome hotel and having a great staff.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r437223138-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -722,6 +1112,39 @@
     <t>Stayed in the 2 BR suite for one night for a quick trip to Houston. I always prefer suites when traveling with my family. Very clean room with super comfy beds! The kitchen was great as well. My only issue is that it is a small suite. I've stayed in many different 2 BR suites over the years and this was one of the smallest. It also only has one bathroom but we survived! Lol.Didn't try the breakfast or pool so can't give an opinion for those:)</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r407056702-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>407056702</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>Nice stay in a nice place</t>
+  </si>
+  <si>
+    <t>Room - was smelly and had to get an air spray no remove that food smell.Bfast for free was good. After 05days you wish you had something different.Restaurant across the street called Cheddar's is good food for a fair price.Free parkingno much in the surroundings.Nigh staff was specially friendly.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r403679204-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403679204</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Love this Location!</t>
+  </si>
+  <si>
+    <t>I travel a few time a year to Houston and this is my Marriott hotel of choice due to its location and Adrianne the form desk agent who is always so knowledgeable and courteous. I look forward to stay here every time I have to go to Houston :) Free Parking a Plus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r393047468-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -773,6 +1196,33 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r387507735-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387507735</t>
+  </si>
+  <si>
+    <t>Another great stay</t>
+  </si>
+  <si>
+    <t>This is my maybe 5th or 6th stay with this hotel. So new, so Plesant. Especially compare to another Marrieatt hotel on westheimer rd in houston. Quite a bit of contrast. Thank you Chelsea from the front desk for making us feeling welcomed over and over again. Really everyone in this property especially in the front desk are just very good and warm people, period.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r382774865-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382774865</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Great service and comfort</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay here. Comfortable room with full kitchen - I love that - I can make my own meals. The service is also great - front desk always doing their best and walking extra miles to make sure guests' needs are met. I recommend.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r378041342-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -827,6 +1277,51 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r364476925-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364476925</t>
+  </si>
+  <si>
+    <t>04/15/2016</t>
+  </si>
+  <si>
+    <t>Very good stay</t>
+  </si>
+  <si>
+    <t>Had a 2 night stay here. First ever stay at a TownePlace. Hotel is located in an area with a bunch of other mid range hotels in the area. Free parking at the hotel. Parked and got checked in very quickly. Hotel had a nice cheery lobby with lots of seating.Room was updated and comfortable. Kitchen was fully stocked with utensils, a full size fridge and microwave. However, there is no water in the room. The room otherwise was very comfortable with a king size bed and a couch that pulls out into a bed that could sleep another adult.Bathroom was average sized but very functional. Good pressure and hot water. Wifi in the hotel was free and worked perfectly well. Bedside had plugs for charging. Breakfast is included in your stay but we slept in both days and didn't get a chance to check it out.This hotel suited our needs very well. It was in a decent location and had an excellent price with free parking. Will definitely return next time in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a 2 night stay here. First ever stay at a TownePlace. Hotel is located in an area with a bunch of other mid range hotels in the area. Free parking at the hotel. Parked and got checked in very quickly. Hotel had a nice cheery lobby with lots of seating.Room was updated and comfortable. Kitchen was fully stocked with utensils, a full size fridge and microwave. However, there is no water in the room. The room otherwise was very comfortable with a king size bed and a couch that pulls out into a bed that could sleep another adult.Bathroom was average sized but very functional. Good pressure and hot water. Wifi in the hotel was free and worked perfectly well. Bedside had plugs for charging. Breakfast is included in your stay but we slept in both days and didn't get a chance to check it out.This hotel suited our needs very well. It was in a decent location and had an excellent price with free parking. Will definitely return next time in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r357988196-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357988196</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Excellent for a 2.5 star hotel!</t>
+  </si>
+  <si>
+    <t>We have stayed in a lot of "suite hotel" properties and are now becoming huge fans of anything in the Marriott family of hotels. This property was clean, comfortable, and the employees were absolutely top-notch. And this is in a city where a lot of service employees obviously hate their jobs, and it shows. Everyone from the front desk (especially Adrienne) to the housekeeping staff was helpful and friendly. My husband and I were staying there on Marriott points and we were afraid the king studio would be too small for the two of us plus our teenage son, so he called ahead to see about an upgrade and Adrienne upgraded us to a two bedroom suite!! We were so incredibly happy and comfortable in this room. I just can't say enough about how nice it is to have a little space to sleep privately when you are traveling with your kids. The breakfast was just okay; it got VERY crowded on the weekend with families with kids, and I would suggest to the hotel to add another waffle machine! But other than that...five stars. The workout room was small but well equipped. If you need a very quiet room, ask for something on the top floor, facing the back parking lot. We heard some traffic from the highway but the A/C fan gave good white noise. We would have paid good money for this room; as it stands, it...We have stayed in a lot of "suite hotel" properties and are now becoming huge fans of anything in the Marriott family of hotels. This property was clean, comfortable, and the employees were absolutely top-notch. And this is in a city where a lot of service employees obviously hate their jobs, and it shows. Everyone from the front desk (especially Adrienne) to the housekeeping staff was helpful and friendly. My husband and I were staying there on Marriott points and we were afraid the king studio would be too small for the two of us plus our teenage son, so he called ahead to see about an upgrade and Adrienne upgraded us to a two bedroom suite!! We were so incredibly happy and comfortable in this room. I just can't say enough about how nice it is to have a little space to sleep privately when you are traveling with your kids. The breakfast was just okay; it got VERY crowded on the weekend with families with kids, and I would suggest to the hotel to add another waffle machine! But other than that...five stars. The workout room was small but well equipped. If you need a very quiet room, ask for something on the top floor, facing the back parking lot. We heard some traffic from the highway but the A/C fan gave good white noise. We would have paid good money for this room; as it stands, it was free...we felt very well cared for here and will definitely return when we come back to Houston next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Cody H, Front Office Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded April 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2016</t>
+  </si>
+  <si>
+    <t>We have stayed in a lot of "suite hotel" properties and are now becoming huge fans of anything in the Marriott family of hotels. This property was clean, comfortable, and the employees were absolutely top-notch. And this is in a city where a lot of service employees obviously hate their jobs, and it shows. Everyone from the front desk (especially Adrienne) to the housekeeping staff was helpful and friendly. My husband and I were staying there on Marriott points and we were afraid the king studio would be too small for the two of us plus our teenage son, so he called ahead to see about an upgrade and Adrienne upgraded us to a two bedroom suite!! We were so incredibly happy and comfortable in this room. I just can't say enough about how nice it is to have a little space to sleep privately when you are traveling with your kids. The breakfast was just okay; it got VERY crowded on the weekend with families with kids, and I would suggest to the hotel to add another waffle machine! But other than that...five stars. The workout room was small but well equipped. If you need a very quiet room, ask for something on the top floor, facing the back parking lot. We heard some traffic from the highway but the A/C fan gave good white noise. We would have paid good money for this room; as it stands, it...We have stayed in a lot of "suite hotel" properties and are now becoming huge fans of anything in the Marriott family of hotels. This property was clean, comfortable, and the employees were absolutely top-notch. And this is in a city where a lot of service employees obviously hate their jobs, and it shows. Everyone from the front desk (especially Adrienne) to the housekeeping staff was helpful and friendly. My husband and I were staying there on Marriott points and we were afraid the king studio would be too small for the two of us plus our teenage son, so he called ahead to see about an upgrade and Adrienne upgraded us to a two bedroom suite!! We were so incredibly happy and comfortable in this room. I just can't say enough about how nice it is to have a little space to sleep privately when you are traveling with your kids. The breakfast was just okay; it got VERY crowded on the weekend with families with kids, and I would suggest to the hotel to add another waffle machine! But other than that...five stars. The workout room was small but well equipped. If you need a very quiet room, ask for something on the top floor, facing the back parking lot. We heard some traffic from the highway but the A/C fan gave good white noise. We would have paid good money for this room; as it stands, it was free...we felt very well cared for here and will definitely return when we come back to Houston next time.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r355891642-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -842,9 +1337,6 @@
     <t>I was warmly greeted upon check in and the same at check out. The staff was really accommodating and the atmosphere was really nice. The free breakfast was not that great but the room had a kitchen and we made it happen.</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r349200319-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -899,6 +1391,45 @@
     <t>Stayed at this hotel for the weekend while visiting family in the Houston area. This TownePlace hotel is approx 1-2 years old, and the facilities are still in relatively good shape. Unfortunately, it appears that the hotel's low weekend special rates ($89/night) attracts young party groups. There were two separate parties on our floor (one of which I had to pound on the door at 5:00am and tell them to turn the music down.... after being greeted by a cloud of marijuana smoke as the door opened).  I'm not sure what the Manager can do about it, since it's hard to identify these kind of problems until they happen.  Good luck !More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r334565974-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334565974</t>
+  </si>
+  <si>
+    <t>12/23/2015</t>
+  </si>
+  <si>
+    <t>love it</t>
+  </si>
+  <si>
+    <t>the staff was very very very freindley i went in the room the room was very very nice tv serivce was the  best you can find any channls on the bed was very very comfblet the brackfast was free but it was bording  same thing every day for 4 days in row  will be back</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r333642941-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333642941</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>Delivers what is needed, but not more</t>
+  </si>
+  <si>
+    <t>I stayed two nights for business. The rooms are clean and ok sized. The shower had a very weak stream of water.  The breakfast was disappointing with plastic silverware and only a small selection of food. Service was ok.Service was ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cody H, Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded December 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2015</t>
+  </si>
+  <si>
+    <t>I stayed two nights for business. The rooms are clean and ok sized. The shower had a very weak stream of water.  The breakfast was disappointing with plastic silverware and only a small selection of food. Service was ok.Service was ok.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r318402713-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -953,6 +1484,42 @@
     <t xml:space="preserve">Pretty new hotel. Rooms are a little small but comfortable. Staff was very friendly and accommodating. Breakfast was a typical fast breakfast but who can complain when it's included with the stay. Little difficult to navigate around the streets of the hotel. Could use a bar bit Cheddars is across the busy street. I'll stay here again. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r308784227-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>308784227</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>Overnight Trip</t>
+  </si>
+  <si>
+    <t>I visited the hotel for one night to pick up my nephew. The hotel was very clean. The room was also very clean. The first thing I checked was the bed linens and bathroom. They both passed my inspection. The room has a full size refrigerator, microwave, dishwasher and stove top. The room was also stocked with pots, pans, utensils, dish towels, paper towels and dishwashing liquid. I would recommend this hotel for long term stays. The hotel also offered breakfast items which included cereal, toast, eggs, sausage waffles, coffee and juice. They also had a couple of computers in the lobby. The only down side was that I requested an upper floor, but was given a room on the first floor. The front desk agent was a little complacent when I inquired about my room request, but I didn't make a fuss because I was only staying for one night. I just thought because I am a Marriott Rewards member and I requested the room ahead, that my request would be honored. Nonetheless, I enjoyed my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I visited the hotel for one night to pick up my nephew. The hotel was very clean. The room was also very clean. The first thing I checked was the bed linens and bathroom. They both passed my inspection. The room has a full size refrigerator, microwave, dishwasher and stove top. The room was also stocked with pots, pans, utensils, dish towels, paper towels and dishwashing liquid. I would recommend this hotel for long term stays. The hotel also offered breakfast items which included cereal, toast, eggs, sausage waffles, coffee and juice. They also had a couple of computers in the lobby. The only down side was that I requested an upper floor, but was given a room on the first floor. The front desk agent was a little complacent when I inquired about my room request, but I didn't make a fuss because I was only staying for one night. I just thought because I am a Marriott Rewards member and I requested the room ahead, that my request would be honored. Nonetheless, I enjoyed my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r306565525-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>306565525</t>
+  </si>
+  <si>
+    <t>09/03/2015</t>
+  </si>
+  <si>
+    <t>Outstanding TownePlace Suites!</t>
+  </si>
+  <si>
+    <t>Outstanding TownePlace Suites! This is a newish Towne Place Suites, front staff very through and friendly.  Room was very clean and up-to-date, like you can expect from a Towne Place Suites.  Still don't understand why Marriott will only give you 1/2 the bonus points for staying at a Towne Place Suites???  That is too bad as I really enjoy the layout of these King Suites!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r286539803-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1031,6 +1598,45 @@
     <t>My business stay at the hotel was for 1 week.  I found the hotel extremely clean and the service team exceptional.  Luis, the hotel van driver was delightful and professional.  On the 3rd day, I experienced some problems with my asthma and needed to find an Urgent Care facility.  The general manager, Alberto Hernandez quickly found a nearby location. The next day, Mr. Hernandez even followed up with a telephone call to make sure I was doing well.I would definitely recommend this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r277721791-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277721791</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Almost what I expected</t>
+  </si>
+  <si>
+    <t>Clean and quiet, especially rooms on the north side, away from Westpark Dr.  They didn't notice my "feather free" in the profile, but made it right quickly.  Friendly staff.  Easy to get to.  Well maintained workout room.  Breakfast?  Ehhh...  If you like waffles or bagels, you're golden.  But no protein items.  Only carbs.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Clean and quiet, especially rooms on the north side, away from Westpark Dr.  They didn't notice my "feather free" in the profile, but made it right quickly.  Friendly staff.  Easy to get to.  Well maintained workout room.  Breakfast?  Ehhh...  If you like waffles or bagels, you're golden.  But no protein items.  Only carbs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r246037328-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246037328</t>
+  </si>
+  <si>
+    <t>12/27/2014</t>
+  </si>
+  <si>
+    <t>New and noisy</t>
+  </si>
+  <si>
+    <t>This is my second stay w this hotel, and we stayed here 4 nights this time. I love that this is a new hotel and the front desk people are very friendly and helpful. The rooms not big but nice, and has a small kitchen, which is very convenient. Our room is facing the highway, and it is very noisy.  Houston's the high way is busy 24 hours a day I think. BE aware if you are a light sleeper.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r245149120-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -1046,9 +1652,6 @@
     <t>I stayed recently at this newer TownePlace Suites Hotel in the Westchase district of Houston.  It's a fairly new property, but it seemed like it was already showing some wear.  My room was on the fourth floor, and it took a very long time to get hot water to the shower.  Also, I understand the need to conserve, but the shower flow was minimal at best.  I stayed two nights, and my room was never touched by housekeeping while I was there.  A little disconcerting.  The desk staff was friendly, and the breakfast was fine, if not really plentiful.  I actually did not notice a great deal of noise from the highway, although it is definitely right next to the property.  The rates were actually pretty steep; cannot say that I would choose this property again when in the area.MoreShow less</t>
   </si>
   <si>
-    <t>December 2014</t>
-  </si>
-  <si>
     <t>Jason D, General Manager at TownePlace Suites Houston Westchase, responded to this reviewResponded December 20, 2014</t>
   </si>
   <si>
@@ -1098,6 +1701,24 @@
   </si>
   <si>
     <t>I would give this hotel a  a "Pretty good." Somewhere between average and very good. Very compact suite. The door opens right into the small kitchen, then a quick 3 steps into a small room. But, in this small space, it does fit most of the conveniences you need. Full size fridge, dishwasher, tiny stovetop with 2 burners, cabinets and utensils for cooking. Nice, big closet. The bed was a Beautyrest king, and although a bit firm, was much more comfortable than the average hotel bed. Nice desk and work area with good lighting, unusual for a hotel. Decent fitness room, and decent buffet breakfast included, with boiled eggs and m.y.o. waffles. The main drawback is that the walls are thin, and the rooms can be pretty noisy. Lots of road noise from the Beltway 8 also. Hotel is fairly new and still clean and fresh. Hotel staff very nice and helpful. Close-by parking a plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6820799-r217735912-TownePlace_Suites_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217735912</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>Amazing hotel view and Great services</t>
+  </si>
+  <si>
+    <t>Amazing hotel view and Great services like in the food. The staff were professional, friendly and attentive. Food in the restaurants was excellent transport was very comfortable and always on-time. Very very nice &amp; Love it. I hope come back soon next visit</t>
+  </si>
+  <si>
+    <t>January 2014</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +2253,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1641,15 +2262,11 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1697,20 +2314,22 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -1725,7 +2344,7 @@
         <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1741,58 +2360,56 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>62</v>
       </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1808,58 +2425,56 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
       <c r="O5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1875,41 +2490,43 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>5</v>
@@ -1918,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="X6" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -1940,58 +2557,56 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
         <v>90</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>91</v>
       </c>
-      <c r="J7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>92</v>
       </c>
-      <c r="L7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>78</v>
-      </c>
       <c r="O7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
         <v>94</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>95</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -2007,31 +2622,31 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>97</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>98</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>99</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>100</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>101</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>78</v>
       </c>
       <c r="O8" t="s">
         <v>102</v>
@@ -2039,20 +2654,24 @@
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y8" t="s">
         <v>103</v>
-      </c>
-      <c r="X8" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -2068,56 +2687,58 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
         <v>106</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>107</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>108</v>
       </c>
-      <c r="K9" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" t="s">
-        <v>110</v>
-      </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
@@ -2133,34 +2754,34 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
         <v>115</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>116</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="s">
         <v>117</v>
-      </c>
-      <c r="K10" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>111</v>
-      </c>
-      <c r="O10" t="s">
-        <v>88</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2172,13 +2793,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
@@ -2194,58 +2815,52 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
         <v>123</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>124</v>
       </c>
-      <c r="J11" t="s">
-        <v>125</v>
-      </c>
-      <c r="K11" t="s">
-        <v>126</v>
-      </c>
-      <c r="L11" t="s">
-        <v>127</v>
-      </c>
-      <c r="M11" t="n">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>111</v>
-      </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
+      <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
@@ -2261,52 +2876,58 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
         <v>131</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>132</v>
       </c>
-      <c r="J12" t="s">
-        <v>133</v>
-      </c>
-      <c r="K12" t="s">
-        <v>134</v>
-      </c>
-      <c r="L12" t="s">
-        <v>135</v>
-      </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>102</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
@@ -2322,7 +2943,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2331,43 +2952,47 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="X13" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="Y13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -2383,7 +3008,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2392,32 +3017,38 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="O14" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
@@ -2428,7 +3059,7 @@
         <v>146</v>
       </c>
       <c r="Y14" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
@@ -2444,7 +3075,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2453,43 +3084,43 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X15" t="s">
+        <v>146</v>
+      </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
@@ -2505,7 +3136,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2514,47 +3145,43 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="O16" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="X16" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -2570,7 +3197,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2579,43 +3206,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>165</v>
+      </c>
+      <c r="X17" t="s">
+        <v>166</v>
+      </c>
       <c r="Y17" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
@@ -2631,7 +3258,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2640,43 +3267,47 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="X18" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
@@ -2692,7 +3323,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2701,22 +3332,26 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
+      <c r="N19" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" t="s">
+        <v>139</v>
+      </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
@@ -2726,10 +3361,14 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>182</v>
+      </c>
+      <c r="X19" t="s">
+        <v>183</v>
+      </c>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
@@ -2745,7 +3384,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2754,45 +3393,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="K20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="O20" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>182</v>
+      </c>
+      <c r="X20" t="s">
+        <v>183</v>
+      </c>
       <c r="Y20" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
@@ -2808,7 +3445,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2817,39 +3454,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s"/>
-      <c r="O21" t="s"/>
-      <c r="P21" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="X21" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="Y21" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
@@ -2865,7 +3512,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2874,43 +3521,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="n">
+        <v>62</v>
+      </c>
+      <c r="P22" t="n">
         <v>4</v>
       </c>
-      <c r="R22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>201</v>
+      </c>
+      <c r="X22" t="s">
+        <v>202</v>
+      </c>
       <c r="Y22" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23">
@@ -2926,7 +3579,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2935,25 +3588,25 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2964,10 +3617,14 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>210</v>
+      </c>
+      <c r="X23" t="s">
+        <v>211</v>
+      </c>
       <c r="Y23" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
@@ -2983,7 +3640,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2992,43 +3649,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="O24" t="s">
-        <v>102</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>218</v>
+      </c>
+      <c r="X24" t="s">
+        <v>219</v>
+      </c>
       <c r="Y24" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25">
@@ -3044,34 +3701,34 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" t="s">
+        <v>224</v>
+      </c>
+      <c r="L25" t="s">
         <v>225</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>226</v>
       </c>
-      <c r="J25" t="s">
-        <v>227</v>
-      </c>
-      <c r="K25" t="s">
-        <v>228</v>
-      </c>
-      <c r="L25" t="s">
-        <v>229</v>
-      </c>
-      <c r="M25" t="n">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s">
-        <v>224</v>
-      </c>
       <c r="O25" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3082,10 +3739,14 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>218</v>
+      </c>
+      <c r="X25" t="s">
+        <v>219</v>
+      </c>
       <c r="Y25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26">
@@ -3101,52 +3762,50 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" t="s">
         <v>230</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>231</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>232</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
         <v>233</v>
       </c>
-      <c r="L26" t="s">
-        <v>234</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>235</v>
-      </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>234</v>
+      </c>
+      <c r="X26" t="s">
+        <v>235</v>
+      </c>
       <c r="Y26" t="s">
         <v>236</v>
       </c>
@@ -3176,22 +3835,22 @@
         <v>238</v>
       </c>
       <c r="J27" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3202,10 +3861,14 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>218</v>
+      </c>
+      <c r="X27" t="s">
+        <v>219</v>
+      </c>
       <c r="Y27" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28">
@@ -3221,7 +3884,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3230,37 +3893,35 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3268,7 +3929,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29">
@@ -3284,7 +3945,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3293,39 +3954,47 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
+        <v>251</v>
+      </c>
+      <c r="J29" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
         <v>248</v>
-      </c>
-      <c r="J29" t="s">
-        <v>249</v>
-      </c>
-      <c r="K29" t="s">
-        <v>250</v>
-      </c>
-      <c r="L29" t="s">
-        <v>251</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>252</v>
       </c>
       <c r="O29" t="s">
         <v>53</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>255</v>
+      </c>
+      <c r="X29" t="s">
+        <v>256</v>
+      </c>
       <c r="Y29" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
@@ -3341,7 +4010,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3350,28 +4019,28 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>263</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="n">
         <v>4</v>
-      </c>
-      <c r="N30" t="s">
-        <v>246</v>
-      </c>
-      <c r="O30" t="s">
-        <v>102</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3</v>
       </c>
       <c r="Q30" t="n">
         <v>4</v>
@@ -3380,7 +4049,7 @@
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3388,7 +4057,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
@@ -3404,7 +4073,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3413,39 +4082,47 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="J31" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s">
+        <v>269</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
         <v>263</v>
       </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>264</v>
-      </c>
       <c r="O31" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>270</v>
+      </c>
+      <c r="X31" t="s">
+        <v>271</v>
+      </c>
       <c r="Y31" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32">
@@ -3461,7 +4138,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3470,34 +4147,32 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="J32" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="K32" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="L32" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="O32" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -3508,7 +4183,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33">
@@ -3524,7 +4199,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3533,49 +4208,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="J33" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="K33" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s">
         <v>53</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="X33" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="Y33" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34">
@@ -3591,7 +4260,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3600,49 +4269,35 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="J34" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K34" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
-      </c>
-      <c r="N34" t="s">
-        <v>285</v>
-      </c>
-      <c r="O34" t="s">
-        <v>102</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
       <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>3</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>3</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>286</v>
-      </c>
-      <c r="X34" t="s">
-        <v>287</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35">
@@ -3658,7 +4313,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3667,43 +4322,39 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="J35" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K35" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="O35" t="s">
         <v>53</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36">
@@ -3719,7 +4370,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3728,45 +4379,39 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="J36" t="s">
+        <v>301</v>
+      </c>
+      <c r="K36" t="s">
+        <v>302</v>
+      </c>
+      <c r="L36" t="s">
+        <v>303</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
         <v>298</v>
       </c>
-      <c r="K36" t="s">
-        <v>299</v>
-      </c>
-      <c r="L36" t="s">
-        <v>300</v>
-      </c>
-      <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>294</v>
-      </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37">
@@ -3782,7 +4427,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3791,39 +4436,45 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J37" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K37" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L37" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="P37" t="s"/>
-      <c r="Q37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
       <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38">
@@ -3839,7 +4490,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3848,53 +4499,39 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="J38" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K38" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>312</v>
-      </c>
-      <c r="O38" t="s">
-        <v>102</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="X38" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Y38" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39">
@@ -3910,7 +4547,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3919,41 +4556,41 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J39" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K39" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L39" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O39" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
       <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>322</v>
-      </c>
-      <c r="X39" t="s">
-        <v>323</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
         <v>324</v>
       </c>
@@ -3992,35 +4629,31 @@
         <v>329</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
+      <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="X40" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y40" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41">
@@ -4036,7 +4669,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4045,35 +4678,37 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J41" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K41" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L41" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="O41" t="s">
         <v>53</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4122,10 +4757,10 @@
         <v>346</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="O42" t="s">
         <v>53</v>
@@ -4142,7 +4777,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43">
@@ -4158,7 +4793,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4167,34 +4802,32 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J43" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K43" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L43" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O43" t="s">
         <v>53</v>
       </c>
-      <c r="P43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
       <c r="Q43" t="s"/>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>5</v>
@@ -4202,14 +4835,2008 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
         <v>353</v>
       </c>
-      <c r="X43" t="s">
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>355</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>356</v>
+      </c>
+      <c r="J44" t="s">
+        <v>357</v>
+      </c>
+      <c r="K44" t="s">
+        <v>358</v>
+      </c>
+      <c r="L44" t="s">
+        <v>359</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
         <v>354</v>
       </c>
-      <c r="Y43" t="s">
-        <v>355</v>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>360</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>361</v>
+      </c>
+      <c r="J45" t="s">
+        <v>362</v>
+      </c>
+      <c r="K45" t="s">
+        <v>363</v>
+      </c>
+      <c r="L45" t="s">
+        <v>364</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>365</v>
+      </c>
+      <c r="O45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>366</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>367</v>
+      </c>
+      <c r="J46" t="s">
+        <v>368</v>
+      </c>
+      <c r="K46" t="s">
+        <v>369</v>
+      </c>
+      <c r="L46" t="s">
+        <v>370</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>323</v>
+      </c>
+      <c r="O46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>371</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>372</v>
+      </c>
+      <c r="J47" t="s">
+        <v>373</v>
+      </c>
+      <c r="K47" t="s">
+        <v>374</v>
+      </c>
+      <c r="L47" t="s">
+        <v>375</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>376</v>
+      </c>
+      <c r="O47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>378</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>379</v>
+      </c>
+      <c r="J48" t="s">
+        <v>373</v>
+      </c>
+      <c r="K48" t="s">
+        <v>380</v>
+      </c>
+      <c r="L48" t="s">
+        <v>381</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>376</v>
+      </c>
+      <c r="O48" t="s">
+        <v>62</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>382</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>383</v>
+      </c>
+      <c r="J49" t="s">
+        <v>384</v>
+      </c>
+      <c r="K49" t="s">
+        <v>385</v>
+      </c>
+      <c r="L49" t="s">
+        <v>386</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>387</v>
+      </c>
+      <c r="O49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>388</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>389</v>
+      </c>
+      <c r="J50" t="s">
+        <v>384</v>
+      </c>
+      <c r="K50" t="s">
+        <v>390</v>
+      </c>
+      <c r="L50" t="s">
+        <v>391</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>323</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>392</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>393</v>
+      </c>
+      <c r="J51" t="s">
+        <v>394</v>
+      </c>
+      <c r="K51" t="s">
+        <v>395</v>
+      </c>
+      <c r="L51" t="s">
+        <v>396</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>323</v>
+      </c>
+      <c r="O51" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>397</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>398</v>
+      </c>
+      <c r="J52" t="s">
+        <v>399</v>
+      </c>
+      <c r="K52" t="s">
+        <v>400</v>
+      </c>
+      <c r="L52" t="s">
+        <v>401</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>402</v>
+      </c>
+      <c r="O52" t="s">
+        <v>62</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>404</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>405</v>
+      </c>
+      <c r="J53" t="s">
+        <v>406</v>
+      </c>
+      <c r="K53" t="s">
+        <v>407</v>
+      </c>
+      <c r="L53" t="s">
+        <v>408</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>387</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>409</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>410</v>
+      </c>
+      <c r="J54" t="s">
+        <v>411</v>
+      </c>
+      <c r="K54" t="s">
+        <v>412</v>
+      </c>
+      <c r="L54" t="s">
+        <v>413</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>414</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>415</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>416</v>
+      </c>
+      <c r="J55" t="s">
+        <v>417</v>
+      </c>
+      <c r="K55" t="s">
+        <v>418</v>
+      </c>
+      <c r="L55" t="s">
+        <v>419</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>414</v>
+      </c>
+      <c r="O55" t="s">
+        <v>102</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>421</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>422</v>
+      </c>
+      <c r="J56" t="s">
+        <v>423</v>
+      </c>
+      <c r="K56" t="s">
+        <v>424</v>
+      </c>
+      <c r="L56" t="s">
+        <v>425</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>426</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>427</v>
+      </c>
+      <c r="X56" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>430</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>431</v>
+      </c>
+      <c r="J57" t="s">
+        <v>432</v>
+      </c>
+      <c r="K57" t="s">
+        <v>433</v>
+      </c>
+      <c r="L57" t="s">
+        <v>434</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>426</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>435</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>436</v>
+      </c>
+      <c r="J58" t="s">
+        <v>437</v>
+      </c>
+      <c r="K58" t="s">
+        <v>438</v>
+      </c>
+      <c r="L58" t="s">
+        <v>439</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>440</v>
+      </c>
+      <c r="O58" t="s">
+        <v>62</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>441</v>
+      </c>
+      <c r="X58" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>444</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>445</v>
+      </c>
+      <c r="J59" t="s">
+        <v>446</v>
+      </c>
+      <c r="K59" t="s">
+        <v>447</v>
+      </c>
+      <c r="L59" t="s">
+        <v>448</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>449</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>450</v>
+      </c>
+      <c r="X59" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>453</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>454</v>
+      </c>
+      <c r="J60" t="s">
+        <v>455</v>
+      </c>
+      <c r="K60" t="s">
+        <v>456</v>
+      </c>
+      <c r="L60" t="s">
+        <v>457</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>449</v>
+      </c>
+      <c r="O60" t="s">
+        <v>102</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>458</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>459</v>
+      </c>
+      <c r="J61" t="s">
+        <v>460</v>
+      </c>
+      <c r="K61" t="s">
+        <v>461</v>
+      </c>
+      <c r="L61" t="s">
+        <v>462</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>449</v>
+      </c>
+      <c r="O61" t="s">
+        <v>62</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>463</v>
+      </c>
+      <c r="X61" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>466</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>467</v>
+      </c>
+      <c r="J62" t="s">
+        <v>468</v>
+      </c>
+      <c r="K62" t="s">
+        <v>469</v>
+      </c>
+      <c r="L62" t="s">
+        <v>470</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>471</v>
+      </c>
+      <c r="O62" t="s">
+        <v>62</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>473</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>474</v>
+      </c>
+      <c r="J63" t="s">
+        <v>475</v>
+      </c>
+      <c r="K63" t="s">
+        <v>476</v>
+      </c>
+      <c r="L63" t="s">
+        <v>477</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>471</v>
+      </c>
+      <c r="O63" t="s">
+        <v>62</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>479</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>480</v>
+      </c>
+      <c r="J64" t="s">
+        <v>481</v>
+      </c>
+      <c r="K64" t="s">
+        <v>482</v>
+      </c>
+      <c r="L64" t="s">
+        <v>483</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>471</v>
+      </c>
+      <c r="O64" t="s">
+        <v>62</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>484</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>485</v>
+      </c>
+      <c r="J65" t="s">
+        <v>486</v>
+      </c>
+      <c r="K65" t="s">
+        <v>487</v>
+      </c>
+      <c r="L65" t="s">
+        <v>488</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>489</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>491</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>492</v>
+      </c>
+      <c r="J66" t="s">
+        <v>493</v>
+      </c>
+      <c r="K66" t="s">
+        <v>494</v>
+      </c>
+      <c r="L66" t="s">
+        <v>495</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>471</v>
+      </c>
+      <c r="O66" t="s">
+        <v>62</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>496</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>497</v>
+      </c>
+      <c r="J67" t="s">
+        <v>498</v>
+      </c>
+      <c r="K67" t="s">
+        <v>499</v>
+      </c>
+      <c r="L67" t="s">
+        <v>500</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>501</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>502</v>
+      </c>
+      <c r="X67" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>505</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>506</v>
+      </c>
+      <c r="J68" t="s">
+        <v>507</v>
+      </c>
+      <c r="K68" t="s">
+        <v>508</v>
+      </c>
+      <c r="L68" t="s">
+        <v>509</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>510</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>511</v>
+      </c>
+      <c r="X68" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>514</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>515</v>
+      </c>
+      <c r="J69" t="s">
+        <v>516</v>
+      </c>
+      <c r="K69" t="s">
+        <v>517</v>
+      </c>
+      <c r="L69" t="s">
+        <v>518</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>501</v>
+      </c>
+      <c r="O69" t="s">
+        <v>62</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>519</v>
+      </c>
+      <c r="X69" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>522</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>523</v>
+      </c>
+      <c r="J70" t="s">
+        <v>524</v>
+      </c>
+      <c r="K70" t="s">
+        <v>525</v>
+      </c>
+      <c r="L70" t="s">
+        <v>526</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>527</v>
+      </c>
+      <c r="O70" t="s">
+        <v>62</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>519</v>
+      </c>
+      <c r="X70" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>529</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>530</v>
+      </c>
+      <c r="J71" t="s">
+        <v>531</v>
+      </c>
+      <c r="K71" t="s">
+        <v>532</v>
+      </c>
+      <c r="L71" t="s">
+        <v>533</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>534</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>535</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>536</v>
+      </c>
+      <c r="J72" t="s">
+        <v>537</v>
+      </c>
+      <c r="K72" t="s">
+        <v>538</v>
+      </c>
+      <c r="L72" t="s">
+        <v>539</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>534</v>
+      </c>
+      <c r="O72" t="s">
+        <v>62</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>540</v>
+      </c>
+      <c r="X72" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>543</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>544</v>
+      </c>
+      <c r="J73" t="s">
+        <v>545</v>
+      </c>
+      <c r="K73" t="s">
+        <v>546</v>
+      </c>
+      <c r="L73" t="s">
+        <v>547</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>534</v>
+      </c>
+      <c r="O73" t="s">
+        <v>62</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>548</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>549</v>
+      </c>
+      <c r="J74" t="s">
+        <v>550</v>
+      </c>
+      <c r="K74" t="s">
+        <v>551</v>
+      </c>
+      <c r="L74" t="s">
+        <v>552</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>553</v>
+      </c>
+      <c r="O74" t="s">
+        <v>62</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>554</v>
+      </c>
+      <c r="X74" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>63375</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>557</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>558</v>
+      </c>
+      <c r="J75" t="s">
+        <v>559</v>
+      </c>
+      <c r="K75" t="s">
+        <v>560</v>
+      </c>
+      <c r="L75" t="s">
+        <v>561</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>562</v>
+      </c>
+      <c r="O75" t="s">
+        <v>102</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
